--- a/PCA-metadata.xlsx
+++ b/PCA-metadata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elroy/Documents/University/Honours 2019/Everything/Data Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elroy/Documents/University/Honours 2019/Everything/BIOINFOMATICS/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="140" yWindow="880" windowWidth="27140" windowHeight="15980" tabRatio="500"/>
+    <workbookView xWindow="9000" yWindow="460" windowWidth="27140" windowHeight="15980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PCA" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="400">
   <si>
     <t>WAM63_R1.fastq.gz</t>
   </si>
@@ -1196,9 +1196,6 @@
     <t>MISSINGNESS</t>
   </si>
   <si>
-    <t xml:space="preserve">INBREEDING </t>
-  </si>
-  <si>
     <t>NSW</t>
   </si>
   <si>
@@ -1227,6 +1224,12 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>INBREEDING2</t>
+  </si>
+  <si>
+    <t>INBREEDING1</t>
   </si>
 </sst>
 </file>
@@ -1717,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W123"/>
+  <dimension ref="A1:X123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1736,7 +1739,7 @@
     <col min="16" max="16384" width="20.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>372</v>
       </c>
@@ -1750,7 +1753,7 @@
         <v>128</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>129</v>
@@ -1786,24 +1789,27 @@
         <v>387</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="R1" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="V1" s="2"/>
       <c r="W1" s="2"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1846,28 +1852,31 @@
         <v>118.65</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P2" s="8">
         <v>9.1314199999999998E-2</v>
       </c>
       <c r="Q2" s="1">
+        <v>0.1747514</v>
+      </c>
+      <c r="R2" s="1">
         <v>0.12558908999999999</v>
       </c>
-      <c r="R2" s="5">
+      <c r="S2" s="5">
         <v>2.8825400000000001</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>-0.46392524400000001</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>-0.409390011</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>-0.13758306009999999</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1910,29 +1919,32 @@
         <v>125.2</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P3" s="8">
         <v>0.143791</v>
       </c>
       <c r="Q3" s="1">
+        <v>0.30817860000000002</v>
+      </c>
+      <c r="R3" s="1">
         <v>0.19224501999999999</v>
       </c>
-      <c r="R3" s="5">
+      <c r="S3" s="5">
         <v>2.1537000000000002</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>-0.62351752500000002</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>0.26810512139999998</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <v>0.33124204779999999</v>
       </c>
-      <c r="V3" s="29"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W3" s="29"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1975,29 +1987,32 @@
         <v>115.5697</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P4" s="8">
         <v>0.242891</v>
       </c>
       <c r="Q4" s="1">
+        <v>0.30838506999999998</v>
+      </c>
+      <c r="R4" s="1">
         <v>0.13135716</v>
       </c>
-      <c r="R4" s="5">
+      <c r="S4" s="5">
         <v>1.71251</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>-0.38952214699999999</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>-0.1370049227</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>-4.0182092000000003E-2</v>
       </c>
-      <c r="V4" s="29"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W4" s="29"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2040,29 +2055,32 @@
         <v>115.5697</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P5" s="8">
         <v>2.3523599999999999E-2</v>
       </c>
       <c r="Q5" s="1">
+        <v>0.12857133000000001</v>
+      </c>
+      <c r="R5" s="1">
         <v>0.1188192</v>
       </c>
-      <c r="R5" s="5">
+      <c r="S5" s="5">
         <v>5.4410699999999999</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>-0.36246968299999999</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>-0.23779872839999999</v>
       </c>
-      <c r="U5" s="1">
+      <c r="V5" s="1">
         <v>-6.9058430200000007E-2</v>
       </c>
-      <c r="V5" s="29"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W5" s="29"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2105,29 +2123,32 @@
         <v>114.61669999999999</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P6" s="8">
         <v>0.19570799999999999</v>
       </c>
       <c r="Q6" s="1">
+        <v>0.44009995000000002</v>
+      </c>
+      <c r="R6" s="1">
         <v>0.37466045999999997</v>
       </c>
-      <c r="R6" s="5">
+      <c r="S6" s="5">
         <v>2.9825300000000001</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>-0.44051386999999997</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>-0.2253457683</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <v>-6.4751239200000005E-2</v>
       </c>
-      <c r="V6" s="29"/>
-    </row>
-    <row r="7" spans="1:23" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W6" s="29"/>
+    </row>
+    <row r="7" spans="1:24" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -2166,29 +2187,32 @@
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
       <c r="O7" s="38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P7" s="39">
         <v>0.169769</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="1">
+        <v>0.23367094999999999</v>
+      </c>
+      <c r="R7" s="31">
         <v>0.10133200000000001</v>
       </c>
-      <c r="R7" s="30">
+      <c r="S7" s="30">
         <v>2.0090400000000002</v>
       </c>
-      <c r="S7" s="31">
+      <c r="T7" s="31">
         <v>2.0905557000000002E-2</v>
       </c>
-      <c r="T7" s="31">
+      <c r="U7" s="31">
         <v>-1.9634824E-3</v>
       </c>
-      <c r="U7" s="31">
+      <c r="V7" s="31">
         <v>-2.9097798000000002E-3</v>
       </c>
-      <c r="V7" s="40"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W7" s="40"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2231,29 +2255,32 @@
         <v>139.4794</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P8" s="8">
         <v>0.19053400000000001</v>
       </c>
       <c r="Q8" s="1">
+        <v>0.25777102000000002</v>
+      </c>
+      <c r="R8" s="1">
         <v>0.13073272999999999</v>
       </c>
-      <c r="R8" s="5">
+      <c r="S8" s="5">
         <v>2.00379</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>0.70946433099999995</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <v>-2.6292224499999999E-2</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V8" s="1">
         <v>6.3859753000000005E-2</v>
       </c>
-      <c r="V8" s="29"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W8" s="29"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2296,29 +2323,32 @@
         <v>136.52029999999999</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P9" s="8">
         <v>0.14519199999999999</v>
       </c>
       <c r="Q9" s="1">
+        <v>0.21922857000000001</v>
+      </c>
+      <c r="R9" s="1">
         <v>0.12784421000000001</v>
       </c>
-      <c r="R9" s="5">
+      <c r="S9" s="5">
         <v>2.16845</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>6.545408E-3</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>-2.4589619999999999E-3</v>
       </c>
-      <c r="U9" s="1">
+      <c r="V9" s="1">
         <v>-7.4428528999999997E-3</v>
       </c>
-      <c r="V9" s="29"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W9" s="29"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2361,29 +2391,32 @@
         <v>139.4794</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P10" s="8">
         <v>3.0672700000000001E-2</v>
       </c>
       <c r="Q10" s="1">
+        <v>0.14257348</v>
+      </c>
+      <c r="R10" s="1">
         <v>0.12168428000000001</v>
       </c>
-      <c r="R10" s="5">
+      <c r="S10" s="5">
         <v>5.6943099999999998</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <v>0.697379627</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <v>-4.7479004700000001E-2</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="1">
         <v>0.10229250080000001</v>
       </c>
-      <c r="V10" s="29"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W10" s="29"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2426,29 +2459,32 @@
         <v>137.80080000000001</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P11" s="8">
         <v>0.19873499999999999</v>
       </c>
       <c r="Q11" s="1">
+        <v>0.25968057</v>
+      </c>
+      <c r="R11" s="1">
         <v>0.13076752</v>
       </c>
-      <c r="R11" s="5">
+      <c r="S11" s="5">
         <v>2.0496400000000001</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>0.30998463500000001</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <v>-1.42023498E-2</v>
       </c>
-      <c r="U11" s="1">
+      <c r="V11" s="1">
         <v>7.0869475000000003E-3</v>
       </c>
-      <c r="V11" s="29"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W11" s="29"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2491,29 +2527,32 @@
         <v>131.5667</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P12" s="8">
         <v>8.3371299999999995E-2</v>
       </c>
       <c r="Q12" s="1">
+        <v>0.31653392000000002</v>
+      </c>
+      <c r="R12" s="1">
         <v>0.25736827000000001</v>
       </c>
-      <c r="R12" s="5">
+      <c r="S12" s="5">
         <v>4.8937200000000001</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <v>-0.210695616</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <v>-0.13983284360000001</v>
       </c>
-      <c r="U12" s="1">
+      <c r="V12" s="1">
         <v>-4.29275696E-2</v>
       </c>
-      <c r="V12" s="29"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W12" s="29"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2556,29 +2595,32 @@
         <v>118.65</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P13" s="8">
         <v>1.7054400000000001E-2</v>
       </c>
       <c r="Q13" s="1">
+        <v>9.4806669999999996E-2</v>
+      </c>
+      <c r="R13" s="1">
         <v>8.8742070000000006E-2</v>
       </c>
-      <c r="R13" s="5">
+      <c r="S13" s="5">
         <v>5.7404799999999998</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <v>-0.42759762499999998</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <v>-0.44374482910000002</v>
       </c>
-      <c r="U13" s="1">
+      <c r="V13" s="1">
         <v>-0.14814234849999999</v>
       </c>
-      <c r="V13" s="29"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W13" s="29"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2592,7 +2634,7 @@
         <v>158</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>123</v>
@@ -2623,29 +2665,32 @@
         <v>139.49109999999999</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P14" s="8">
         <v>0.31273499999999999</v>
       </c>
       <c r="Q14" s="1">
+        <v>0.51827489999999998</v>
+      </c>
+      <c r="R14" s="1">
         <v>0.38815808000000002</v>
       </c>
-      <c r="R14" s="5">
+      <c r="S14" s="5">
         <v>2.92842</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <v>0.83078454999999996</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U14" s="1">
         <v>-4.0400212400000003E-2</v>
       </c>
-      <c r="U14" s="1">
+      <c r="V14" s="1">
         <v>8.9560205099999998E-2</v>
       </c>
-      <c r="V14" s="29"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="29"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2659,7 +2704,7 @@
         <v>160</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>123</v>
@@ -2690,29 +2735,32 @@
         <v>139.48609999999999</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P15" s="8">
         <v>0.14934800000000001</v>
       </c>
       <c r="Q15" s="1">
+        <v>0.33502531000000002</v>
+      </c>
+      <c r="R15" s="1">
         <v>0.25502095000000002</v>
       </c>
-      <c r="R15" s="5">
+      <c r="S15" s="5">
         <v>3.0759400000000001</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T15" s="1">
         <v>0.70138521799999998</v>
       </c>
-      <c r="T15" s="1">
+      <c r="U15" s="1">
         <v>-3.84537317E-2</v>
       </c>
-      <c r="U15" s="1">
+      <c r="V15" s="1">
         <v>6.8908881800000002E-2</v>
       </c>
-      <c r="V15" s="29"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W15" s="29"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2755,29 +2803,32 @@
         <v>139.4794</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P16" s="8">
         <v>8.1687599999999999E-2</v>
       </c>
       <c r="Q16" s="1">
+        <v>0.19755118999999999</v>
+      </c>
+      <c r="R16" s="1">
         <v>0.12864323</v>
       </c>
-      <c r="R16" s="5">
+      <c r="S16" s="5">
         <v>3.3184100000000001</v>
       </c>
-      <c r="S16" s="1">
+      <c r="T16" s="1">
         <v>0.70828447000000005</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="1">
         <v>-3.3574590699999997E-2</v>
       </c>
-      <c r="U16" s="1">
+      <c r="V16" s="1">
         <v>8.0191886399999995E-2</v>
       </c>
-      <c r="V16" s="29"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="29"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2820,29 +2871,32 @@
         <v>139.4794</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P17" s="8">
         <v>0.21574099999999999</v>
       </c>
       <c r="Q17" s="1">
+        <v>0.27760785999999998</v>
+      </c>
+      <c r="R17" s="1">
         <v>0.13128711000000001</v>
       </c>
-      <c r="R17" s="5">
+      <c r="S17" s="5">
         <v>1.96637</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T17" s="1">
         <v>0.71555992499999999</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <v>-2.5942320899999999E-2</v>
       </c>
-      <c r="U17" s="1">
+      <c r="V17" s="1">
         <v>5.9315850000000003E-2</v>
       </c>
-      <c r="V17" s="29"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="29"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2885,29 +2939,32 @@
         <v>139.4794</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P18" s="8">
         <v>0.13425699999999999</v>
       </c>
       <c r="Q18" s="1">
+        <v>0.26146436000000001</v>
+      </c>
+      <c r="R18" s="1">
         <v>0.18956006</v>
       </c>
-      <c r="R18" s="5">
+      <c r="S18" s="5">
         <v>2.8100800000000001</v>
       </c>
-      <c r="S18" s="1">
+      <c r="T18" s="1">
         <v>0.776662309</v>
       </c>
-      <c r="T18" s="1">
+      <c r="U18" s="1">
         <v>-4.6115381099999998E-2</v>
       </c>
-      <c r="U18" s="1">
+      <c r="V18" s="1">
         <v>8.9515906100000001E-2</v>
       </c>
-      <c r="V18" s="29"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="29"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2950,29 +3007,32 @@
         <v>139.4794</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P19" s="8">
         <v>6.1962299999999998E-2</v>
       </c>
       <c r="Q19" s="1">
+        <v>0.14611518000000001</v>
+      </c>
+      <c r="R19" s="1">
         <v>9.4127970000000005E-2</v>
       </c>
-      <c r="R19" s="5">
+      <c r="S19" s="5">
         <v>3.4533299999999998</v>
       </c>
-      <c r="S19" s="1">
+      <c r="T19" s="1">
         <v>0.79986897300000004</v>
       </c>
-      <c r="T19" s="1">
+      <c r="U19" s="1">
         <v>-6.43279041E-2</v>
       </c>
-      <c r="U19" s="1">
+      <c r="V19" s="1">
         <v>0.13910820300000001</v>
       </c>
-      <c r="V19" s="29"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="29"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3007,29 +3067,32 @@
         <v>133.69560000000001</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P20" s="8">
         <v>9.7893599999999997E-2</v>
       </c>
       <c r="Q20" s="1">
+        <v>0.39399677999999999</v>
+      </c>
+      <c r="R20" s="1">
         <v>0.36587465000000002</v>
       </c>
-      <c r="R20" s="5">
+      <c r="S20" s="5">
         <v>6.7313999999999998</v>
       </c>
-      <c r="S20" s="1">
+      <c r="T20" s="1">
         <v>-0.115940585</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
         <v>-9.2342090500000001E-2</v>
       </c>
-      <c r="U20" s="1">
+      <c r="V20" s="1">
         <v>-3.1947548300000003E-2</v>
       </c>
-      <c r="V20" s="29"/>
-    </row>
-    <row r="21" spans="1:22" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W20" s="29"/>
+    </row>
+    <row r="21" spans="1:23" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31">
         <v>20</v>
       </c>
@@ -3043,7 +3106,7 @@
         <v>172</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>123</v>
@@ -3070,29 +3133,32 @@
       <c r="M21" s="30"/>
       <c r="N21" s="30"/>
       <c r="O21" s="41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P21" s="39">
         <v>0.155003</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="Q21" s="1">
+        <v>0.23196148999999999</v>
+      </c>
+      <c r="R21" s="31">
         <v>0.12996304</v>
       </c>
-      <c r="R21" s="30">
+      <c r="S21" s="30">
         <v>2.0952099999999998</v>
       </c>
-      <c r="S21" s="31">
+      <c r="T21" s="31">
         <v>0.37995037599999998</v>
       </c>
-      <c r="T21" s="31">
+      <c r="U21" s="31">
         <v>-1.88303311E-2</v>
       </c>
-      <c r="U21" s="31">
+      <c r="V21" s="31">
         <v>1.3933933399999999E-2</v>
       </c>
-      <c r="V21" s="40"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="40"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3106,7 +3172,7 @@
         <v>174</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>123</v>
@@ -3137,29 +3203,32 @@
         <v>134.81100000000001</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P22" s="8">
         <v>0.11955300000000001</v>
       </c>
       <c r="Q22" s="1">
+        <v>0.15929359000000001</v>
+      </c>
+      <c r="R22" s="1">
         <v>9.483055E-2</v>
       </c>
-      <c r="R22" s="5">
+      <c r="S22" s="5">
         <v>2.3176700000000001</v>
       </c>
-      <c r="S22" s="1">
+      <c r="T22" s="1">
         <v>-4.4948914999999999E-2</v>
       </c>
-      <c r="T22" s="1">
+      <c r="U22" s="1">
         <v>-5.3793045800000001E-2</v>
       </c>
-      <c r="U22" s="1">
+      <c r="V22" s="1">
         <v>-1.18419413E-2</v>
       </c>
-      <c r="V22" s="29"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="29"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3173,7 +3242,7 @@
         <v>176</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>123</v>
@@ -3204,29 +3273,32 @@
         <v>134.8109</v>
       </c>
       <c r="O23" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P23" s="8">
         <v>0.39113300000000001</v>
       </c>
       <c r="Q23" s="1">
+        <v>0.30871648000000002</v>
+      </c>
+      <c r="R23" s="1">
         <v>9.6312809999999999E-2</v>
       </c>
-      <c r="R23" s="5">
+      <c r="S23" s="5">
         <v>0.95578600000000002</v>
       </c>
-      <c r="S23" s="1">
+      <c r="T23" s="1">
         <v>-7.8895852000000002E-2</v>
       </c>
-      <c r="T23" s="1">
+      <c r="U23" s="1">
         <v>-3.1956787899999999E-2</v>
       </c>
-      <c r="U23" s="1">
+      <c r="V23" s="1">
         <v>-9.9889690999999999E-3</v>
       </c>
-      <c r="V23" s="29"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="29"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3240,7 +3312,7 @@
         <v>178</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>123</v>
@@ -3271,29 +3343,32 @@
         <v>134.8107</v>
       </c>
       <c r="O24" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P24" s="8">
         <v>9.0167300000000006E-2</v>
       </c>
       <c r="Q24" s="1">
+        <v>0.18331778000000001</v>
+      </c>
+      <c r="R24" s="1">
         <v>0.12530832</v>
       </c>
-      <c r="R24" s="5">
+      <c r="S24" s="5">
         <v>2.67875</v>
       </c>
-      <c r="S24" s="1">
+      <c r="T24" s="1">
         <v>-3.4111253000000001E-2</v>
       </c>
-      <c r="T24" s="1">
+      <c r="U24" s="1">
         <v>-1.5174619800000001E-2</v>
       </c>
-      <c r="U24" s="1">
+      <c r="V24" s="1">
         <v>-1.144685E-2</v>
       </c>
-      <c r="V24" s="29"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="29"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3307,7 +3382,7 @@
         <v>180</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>123</v>
@@ -3338,29 +3413,32 @@
         <v>134.81059999999999</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P25" s="8">
         <v>0.12884999999999999</v>
       </c>
       <c r="Q25" s="1">
+        <v>0.20656478</v>
+      </c>
+      <c r="R25" s="1">
         <v>0.10074149</v>
       </c>
-      <c r="R25" s="5">
+      <c r="S25" s="5">
         <v>2.2148400000000001</v>
       </c>
-      <c r="S25" s="1">
+      <c r="T25" s="1">
         <v>-1.1038773E-2</v>
       </c>
-      <c r="T25" s="1">
+      <c r="U25" s="1">
         <v>-2.01632289E-2</v>
       </c>
-      <c r="U25" s="1">
+      <c r="V25" s="1">
         <v>-1.2420642500000001E-2</v>
       </c>
-      <c r="V25" s="29"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="29"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3403,29 +3481,32 @@
         <v>130.12029999999999</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P26" s="8">
         <v>1.1069300000000001E-2</v>
       </c>
       <c r="Q26" s="1">
+        <v>0.10084563000000001</v>
+      </c>
+      <c r="R26" s="1">
         <v>8.9608289999999993E-2</v>
       </c>
-      <c r="R26" s="5">
+      <c r="S26" s="5">
         <v>7.34389</v>
       </c>
-      <c r="S26" s="1">
+      <c r="T26" s="1">
         <v>-0.24375375499999999</v>
       </c>
-      <c r="T26" s="1">
+      <c r="U26" s="1">
         <v>-0.1486940309</v>
       </c>
-      <c r="U26" s="1">
+      <c r="V26" s="1">
         <v>-5.1460189000000003E-2</v>
       </c>
-      <c r="V26" s="29"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="29"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3439,7 +3520,7 @@
         <v>184</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>123</v>
@@ -3470,29 +3551,32 @@
         <v>137.36330000000001</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P27" s="8">
         <v>9.4643400000000003E-2</v>
       </c>
       <c r="Q27" s="1">
+        <v>0.16901952000000001</v>
+      </c>
+      <c r="R27" s="1">
         <v>9.8226019999999997E-2</v>
       </c>
-      <c r="R27" s="5">
+      <c r="S27" s="5">
         <v>2.55003</v>
       </c>
-      <c r="S27" s="1">
+      <c r="T27" s="1">
         <v>-9.7114460000000003E-3</v>
       </c>
-      <c r="T27" s="1">
+      <c r="U27" s="1">
         <v>-1.2510723499999999E-2</v>
       </c>
-      <c r="U27" s="1">
+      <c r="V27" s="1">
         <v>-8.3492190999999993E-3</v>
       </c>
-      <c r="V27" s="29"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="29"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3506,7 +3590,7 @@
         <v>186</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>123</v>
@@ -3537,29 +3621,32 @@
         <v>137.6036</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P28" s="8">
         <v>0.104195</v>
       </c>
       <c r="Q28" s="1">
+        <v>0.19671023000000001</v>
+      </c>
+      <c r="R28" s="1">
         <v>0.12666239000000001</v>
       </c>
-      <c r="R28" s="5">
+      <c r="S28" s="5">
         <v>2.5556100000000002</v>
       </c>
-      <c r="S28" s="1">
+      <c r="T28" s="1">
         <v>8.1782109999999995E-3</v>
       </c>
-      <c r="T28" s="1">
+      <c r="U28" s="1">
         <v>-1.1491343399999999E-2</v>
       </c>
-      <c r="U28" s="1">
+      <c r="V28" s="1">
         <v>-9.3690595000000005E-3</v>
       </c>
-      <c r="V28" s="29"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="29"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3573,7 +3660,7 @@
         <v>188</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>123</v>
@@ -3604,29 +3691,32 @@
         <v>136.76939999999999</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P29" s="8">
         <v>0.16949500000000001</v>
       </c>
       <c r="Q29" s="1">
+        <v>0.22266424000000001</v>
+      </c>
+      <c r="R29" s="1">
         <v>9.9784310000000001E-2</v>
       </c>
-      <c r="R29" s="5">
+      <c r="S29" s="5">
         <v>1.87175</v>
       </c>
-      <c r="S29" s="1">
+      <c r="T29" s="1">
         <v>2.4181133E-2</v>
       </c>
-      <c r="T29" s="1">
+      <c r="U29" s="1">
         <v>-1.21648433E-2</v>
       </c>
-      <c r="U29" s="1">
+      <c r="V29" s="1">
         <v>-9.3766349999999995E-3</v>
       </c>
-      <c r="V29" s="29"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="29"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3640,7 +3730,7 @@
         <v>191</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>123</v>
@@ -3671,29 +3761,32 @@
         <v>137.0925</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P30" s="8">
         <v>0.17457</v>
       </c>
       <c r="Q30" s="1">
+        <v>0.22798771000000001</v>
+      </c>
+      <c r="R30" s="1">
         <v>0.10056274</v>
       </c>
-      <c r="R30" s="5">
+      <c r="S30" s="5">
         <v>1.85646</v>
       </c>
-      <c r="S30" s="1">
+      <c r="T30" s="1">
         <v>2.0464234000000001E-2</v>
       </c>
-      <c r="T30" s="1">
+      <c r="U30" s="1">
         <v>-2.21234269E-2</v>
       </c>
-      <c r="U30" s="1">
+      <c r="V30" s="1">
         <v>-1.0899507100000001E-2</v>
       </c>
-      <c r="V30" s="29"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="29"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3736,29 +3829,32 @@
         <v>113.5333</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P31" s="8">
         <v>0.15370200000000001</v>
       </c>
       <c r="Q31" s="1">
+        <v>0.29659516000000002</v>
+      </c>
+      <c r="R31" s="1">
         <v>0.19190225</v>
       </c>
-      <c r="R31" s="5">
+      <c r="S31" s="5">
         <v>2.1434299999999999</v>
       </c>
-      <c r="S31" s="1">
+      <c r="T31" s="1">
         <v>-0.43342923700000002</v>
       </c>
-      <c r="T31" s="1">
+      <c r="U31" s="1">
         <v>-0.21335003050000001</v>
       </c>
-      <c r="U31" s="1">
+      <c r="V31" s="1">
         <v>-6.10116281E-2</v>
       </c>
-      <c r="V31" s="29"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="29"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3772,7 +3868,7 @@
         <v>195</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>123</v>
@@ -3803,29 +3899,32 @@
         <v>137.19579999999999</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P32" s="8">
         <v>0.13197900000000001</v>
       </c>
       <c r="Q32" s="1">
+        <v>0.40345650999999999</v>
+      </c>
+      <c r="R32" s="1">
         <v>0.37015357999999998</v>
       </c>
-      <c r="R32" s="5">
+      <c r="S32" s="5">
         <v>3.3441700000000001</v>
       </c>
-      <c r="S32" s="1">
+      <c r="T32" s="1">
         <v>0.59413809399999995</v>
       </c>
-      <c r="T32" s="1">
+      <c r="U32" s="1">
         <v>-1.4325232300000001E-2</v>
       </c>
-      <c r="U32" s="1">
+      <c r="V32" s="1">
         <v>3.3691970199999997E-2</v>
       </c>
-      <c r="V32" s="29"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W32" s="29"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3839,7 +3938,7 @@
         <v>197</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>123</v>
@@ -3870,29 +3969,32 @@
         <v>137.4006</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P33" s="8">
         <v>0.15339800000000001</v>
       </c>
       <c r="Q33" s="1">
+        <v>0.26931548</v>
+      </c>
+      <c r="R33" s="1">
         <v>0.19076083999999999</v>
       </c>
-      <c r="R33" s="5">
+      <c r="S33" s="5">
         <v>2.2587299999999999</v>
       </c>
-      <c r="S33" s="1">
+      <c r="T33" s="1">
         <v>0.55587277199999996</v>
       </c>
-      <c r="T33" s="1">
+      <c r="U33" s="1">
         <v>-1.1683546600000001E-2</v>
       </c>
-      <c r="U33" s="1">
+      <c r="V33" s="1">
         <v>2.94087138E-2</v>
       </c>
-      <c r="V33" s="29"/>
-    </row>
-    <row r="34" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W33" s="29"/>
+    </row>
+    <row r="34" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>33</v>
       </c>
@@ -3906,7 +4008,7 @@
         <v>199</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F34" s="21" t="s">
         <v>123</v>
@@ -3937,30 +4039,33 @@
         <v>143.55109999999999</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P34" s="28">
         <v>0.24784900000000001</v>
       </c>
       <c r="Q34" s="1">
+        <v>0.26205367000000002</v>
+      </c>
+      <c r="R34" s="1">
         <v>9.8872420000000003E-2</v>
       </c>
-      <c r="R34" s="20">
+      <c r="S34" s="20">
         <v>1.51901</v>
       </c>
-      <c r="S34" s="19">
+      <c r="T34" s="19">
         <v>-0.360136864</v>
       </c>
-      <c r="T34" s="19">
+      <c r="U34" s="19">
         <v>-0.1162217188</v>
       </c>
-      <c r="U34" s="19">
+      <c r="V34" s="19">
         <v>-3.6045077600000003E-2</v>
       </c>
-      <c r="V34" s="29"/>
-      <c r="W34" s="1"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W34" s="29"/>
+      <c r="X34" s="1"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3974,7 +4079,7 @@
         <v>201</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>123</v>
@@ -4005,29 +4110,32 @@
         <v>137.6036</v>
       </c>
       <c r="O35" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P35" s="8">
         <v>7.7746200000000001E-2</v>
       </c>
       <c r="Q35" s="1">
+        <v>0.17165911</v>
+      </c>
+      <c r="R35" s="1">
         <v>0.12406892</v>
       </c>
-      <c r="R35" s="5">
+      <c r="S35" s="5">
         <v>2.84361</v>
       </c>
-      <c r="S35" s="1">
+      <c r="T35" s="1">
         <v>9.1275269999999999E-3</v>
       </c>
-      <c r="T35" s="1">
+      <c r="U35" s="1">
         <v>-4.2002181E-3</v>
       </c>
-      <c r="U35" s="1">
+      <c r="V35" s="1">
         <v>-1.9617597999999998E-3</v>
       </c>
-      <c r="V35" s="29"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W35" s="29"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4041,7 +4149,7 @@
         <v>203</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>123</v>
@@ -4072,29 +4180,32 @@
         <v>126.0433</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P36" s="8">
         <v>2.7642099999999999E-2</v>
       </c>
       <c r="Q36" s="1">
+        <v>9.6176620000000004E-2</v>
+      </c>
+      <c r="R36" s="1">
         <v>8.8444430000000004E-2</v>
       </c>
-      <c r="R36" s="5">
+      <c r="S36" s="5">
         <v>3.98807</v>
       </c>
-      <c r="S36" s="1">
+      <c r="T36" s="1">
         <v>-0.23603948799999999</v>
       </c>
-      <c r="T36" s="1">
+      <c r="U36" s="1">
         <v>-0.1129431166</v>
       </c>
-      <c r="U36" s="1">
+      <c r="V36" s="1">
         <v>-4.60359095E-2</v>
       </c>
-      <c r="V36" s="29"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W36" s="29"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4108,7 +4219,7 @@
         <v>205</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>123</v>
@@ -4139,29 +4250,32 @@
         <v>134.19200000000001</v>
       </c>
       <c r="O37" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P37" s="8">
         <v>3.85292E-2</v>
       </c>
       <c r="Q37" s="1">
+        <v>0.17680626999999999</v>
+      </c>
+      <c r="R37" s="1">
         <v>0.17632900000000001</v>
       </c>
-      <c r="R37" s="5">
+      <c r="S37" s="5">
         <v>4.2041500000000003</v>
       </c>
-      <c r="S37" s="1">
+      <c r="T37" s="1">
         <v>-0.209881279</v>
       </c>
-      <c r="T37" s="1">
+      <c r="U37" s="1">
         <v>0.15127590069999999</v>
       </c>
-      <c r="U37" s="1">
+      <c r="V37" s="1">
         <v>2.7237318999999999E-3</v>
       </c>
-      <c r="V37" s="29"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W37" s="29"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4175,7 +4289,7 @@
         <v>207</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>123</v>
@@ -4206,29 +4320,32 @@
         <v>127.44499999999999</v>
       </c>
       <c r="O38" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P38" s="8">
         <v>7.7256500000000006E-2</v>
       </c>
       <c r="Q38" s="1">
+        <v>0.15516239000000001</v>
+      </c>
+      <c r="R38" s="1">
         <v>9.9653900000000004E-2</v>
       </c>
-      <c r="R38" s="5">
+      <c r="S38" s="5">
         <v>2.90795</v>
       </c>
-      <c r="S38" s="1">
+      <c r="T38" s="1">
         <v>-0.29431660300000001</v>
       </c>
-      <c r="T38" s="1">
+      <c r="U38" s="1">
         <v>-0.14123328139999999</v>
       </c>
-      <c r="U38" s="1">
+      <c r="V38" s="1">
         <v>-4.2796305299999997E-2</v>
       </c>
-      <c r="V38" s="29"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W38" s="29"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4242,7 +4359,7 @@
         <v>209</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>123</v>
@@ -4273,29 +4390,32 @@
         <v>128.0967</v>
       </c>
       <c r="O39" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P39" s="8">
         <v>0.13580500000000001</v>
       </c>
       <c r="Q39" s="1">
+        <v>0.18908738999999999</v>
+      </c>
+      <c r="R39" s="1">
         <v>9.9677429999999997E-2</v>
       </c>
-      <c r="R39" s="5">
+      <c r="S39" s="5">
         <v>2.1983000000000001</v>
       </c>
-      <c r="S39" s="1">
+      <c r="T39" s="1">
         <v>-0.293461164</v>
       </c>
-      <c r="T39" s="1">
+      <c r="U39" s="1">
         <v>-0.12191204730000001</v>
       </c>
-      <c r="U39" s="1">
+      <c r="V39" s="1">
         <v>-3.41516953E-2</v>
       </c>
-      <c r="V39" s="29"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W39" s="29"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4309,7 +4429,7 @@
         <v>211</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>123</v>
@@ -4340,29 +4460,32 @@
         <v>128.23330000000001</v>
       </c>
       <c r="O40" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P40" s="8">
         <v>0.20927000000000001</v>
       </c>
       <c r="Q40" s="1">
+        <v>0.53728980000000004</v>
+      </c>
+      <c r="R40" s="1">
         <v>0.49589433999999999</v>
       </c>
-      <c r="R40" s="5">
+      <c r="S40" s="5">
         <v>3.8922599999999998</v>
       </c>
-      <c r="S40" s="1">
+      <c r="T40" s="1">
         <v>-0.32710610099999998</v>
       </c>
-      <c r="T40" s="1">
+      <c r="U40" s="1">
         <v>-0.1753286681</v>
       </c>
-      <c r="U40" s="1">
+      <c r="V40" s="1">
         <v>-5.9209533799999998E-2</v>
       </c>
-      <c r="V40" s="29"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W40" s="29"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4376,7 +4499,7 @@
         <v>213</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>123</v>
@@ -4407,29 +4530,32 @@
         <v>126.1982</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P41" s="8">
         <v>7.2572200000000003E-2</v>
       </c>
       <c r="Q41" s="1">
+        <v>0.1518265</v>
+      </c>
+      <c r="R41" s="1">
         <v>9.5311019999999996E-2</v>
       </c>
-      <c r="R41" s="5">
+      <c r="S41" s="5">
         <v>2.9124400000000001</v>
       </c>
-      <c r="S41" s="1">
+      <c r="T41" s="1">
         <v>-0.215549036</v>
       </c>
-      <c r="T41" s="1">
+      <c r="U41" s="1">
         <v>3.9897360999999999E-2</v>
       </c>
-      <c r="U41" s="1">
+      <c r="V41" s="1">
         <v>2.9677309400000001E-2</v>
       </c>
-      <c r="V41" s="29"/>
-    </row>
-    <row r="42" spans="1:23" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W41" s="29"/>
+    </row>
+    <row r="42" spans="1:24" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="31">
         <v>41</v>
       </c>
@@ -4443,7 +4569,7 @@
         <v>215</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F42" s="32" t="s">
         <v>123</v>
@@ -4470,29 +4596,32 @@
       <c r="M42" s="30"/>
       <c r="N42" s="30"/>
       <c r="O42" s="38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P42" s="39">
         <v>0.189141</v>
       </c>
-      <c r="Q42" s="31">
+      <c r="Q42" s="1">
+        <v>0.23309135</v>
+      </c>
+      <c r="R42" s="31">
         <v>0.10038593</v>
       </c>
-      <c r="R42" s="30">
+      <c r="S42" s="30">
         <v>1.7851399999999999</v>
       </c>
-      <c r="S42" s="31">
+      <c r="T42" s="31">
         <v>3.1769202000000003E-2</v>
       </c>
-      <c r="T42" s="31">
+      <c r="U42" s="31">
         <v>-1.7120790399999999E-2</v>
       </c>
-      <c r="U42" s="31">
+      <c r="V42" s="31">
         <v>-8.6220731000000005E-3</v>
       </c>
-      <c r="V42" s="40"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W42" s="40"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4535,29 +4664,32 @@
         <v>131.19059999999999</v>
       </c>
       <c r="O43" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P43" s="8">
         <v>0.19073799999999999</v>
       </c>
       <c r="Q43" s="1">
+        <v>0.31237780999999998</v>
+      </c>
+      <c r="R43" s="1">
         <v>0.19467406000000001</v>
       </c>
-      <c r="R43" s="5">
+      <c r="S43" s="5">
         <v>2.19279</v>
       </c>
-      <c r="S43" s="1">
+      <c r="T43" s="1">
         <v>-0.24758477300000001</v>
       </c>
-      <c r="T43" s="1">
+      <c r="U43" s="1">
         <v>-8.5580986499999998E-2</v>
       </c>
-      <c r="U43" s="1">
+      <c r="V43" s="1">
         <v>-2.6119168200000001E-2</v>
       </c>
-      <c r="V43" s="29"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W43" s="29"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4571,7 +4703,7 @@
         <v>219</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>123</v>
@@ -4602,29 +4734,32 @@
         <v>127.6862</v>
       </c>
       <c r="O44" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P44" s="8">
         <v>7.7543200000000007E-2</v>
       </c>
       <c r="Q44" s="1">
+        <v>0.16181862</v>
+      </c>
+      <c r="R44" s="1">
         <v>0.1238783</v>
       </c>
-      <c r="R44" s="5">
+      <c r="S44" s="5">
         <v>2.8914599999999999</v>
       </c>
-      <c r="S44" s="1">
+      <c r="T44" s="1">
         <v>-0.28581720999999999</v>
       </c>
-      <c r="T44" s="1">
+      <c r="U44" s="1">
         <v>0.1018927667</v>
       </c>
-      <c r="U44" s="1">
+      <c r="V44" s="1">
         <v>9.3123216499999995E-2</v>
       </c>
-      <c r="V44" s="29"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W44" s="29"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4638,7 +4773,7 @@
         <v>221</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>123</v>
@@ -4669,29 +4804,32 @@
         <v>149.84639999999999</v>
       </c>
       <c r="O45" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P45" s="8">
         <v>0.109441</v>
       </c>
       <c r="Q45" s="1">
+        <v>0.20330334</v>
+      </c>
+      <c r="R45" s="1">
         <v>0.12691192000000001</v>
       </c>
-      <c r="R45" s="5">
+      <c r="S45" s="5">
         <v>2.5052099999999999</v>
       </c>
-      <c r="S45" s="1">
+      <c r="T45" s="1">
         <v>0.455916447</v>
       </c>
-      <c r="T45" s="1">
+      <c r="U45" s="1">
         <v>2.5710994E-3</v>
       </c>
-      <c r="U45" s="1">
+      <c r="V45" s="1">
         <v>1.43792483E-2</v>
       </c>
-      <c r="V45" s="29"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W45" s="29"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4705,7 +4843,7 @@
         <v>223</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>123</v>
@@ -4736,29 +4874,32 @@
         <v>132.41900000000001</v>
       </c>
       <c r="O46" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P46" s="8">
         <v>5.9011099999999997E-2</v>
       </c>
       <c r="Q46" s="1">
+        <v>0.19230734999999999</v>
+      </c>
+      <c r="R46" s="1">
         <v>0.17956406999999999</v>
       </c>
-      <c r="R46" s="5">
+      <c r="S46" s="5">
         <v>3.5536500000000002</v>
       </c>
-      <c r="S46" s="1">
+      <c r="T46" s="1">
         <v>-0.22556794599999999</v>
       </c>
-      <c r="T46" s="1">
+      <c r="U46" s="1">
         <v>5.4636535600000001E-2</v>
       </c>
-      <c r="U46" s="1">
+      <c r="V46" s="1">
         <v>2.8350632800000001E-2</v>
       </c>
-      <c r="V46" s="29"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W46" s="29"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4772,7 +4913,7 @@
         <v>225</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>123</v>
@@ -4803,29 +4944,32 @@
         <v>141.13329999999999</v>
       </c>
       <c r="O47" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P47" s="8">
         <v>8.4633799999999995E-2</v>
       </c>
       <c r="Q47" s="1">
+        <v>0.24647552</v>
+      </c>
+      <c r="R47" s="1">
         <v>0.18702962000000001</v>
       </c>
-      <c r="R47" s="5">
+      <c r="S47" s="5">
         <v>2.9082499999999998</v>
       </c>
-      <c r="S47" s="1">
+      <c r="T47" s="1">
         <v>0.14136706099999999</v>
       </c>
-      <c r="T47" s="1">
+      <c r="U47" s="1">
         <v>9.4568476600000007E-2</v>
       </c>
-      <c r="U47" s="1">
+      <c r="V47" s="1">
         <v>-0.1130485049</v>
       </c>
-      <c r="V47" s="29"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W47" s="29"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4839,7 +4983,7 @@
         <v>227</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>123</v>
@@ -4870,29 +5014,32 @@
         <v>138.06389999999999</v>
       </c>
       <c r="O48" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P48" s="8">
         <v>0.127943</v>
       </c>
       <c r="Q48" s="1">
+        <v>0.15129727000000001</v>
+      </c>
+      <c r="R48" s="1">
         <v>9.5734780000000005E-2</v>
       </c>
-      <c r="R48" s="5">
+      <c r="S48" s="5">
         <v>2.2754300000000001</v>
       </c>
-      <c r="S48" s="1">
+      <c r="T48" s="1">
         <v>0.47446392700000001</v>
       </c>
-      <c r="T48" s="1">
+      <c r="U48" s="1">
         <v>-1.5300604400000001E-2</v>
       </c>
-      <c r="U48" s="1">
+      <c r="V48" s="1">
         <v>2.9522698E-2</v>
       </c>
-      <c r="V48" s="29"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W48" s="29"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4906,7 +5053,7 @@
         <v>229</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>123</v>
@@ -4937,29 +5084,32 @@
         <v>125.9081</v>
       </c>
       <c r="O49" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P49" s="8">
         <v>0.143314</v>
       </c>
       <c r="Q49" s="1">
+        <v>0.42894571999999997</v>
+      </c>
+      <c r="R49" s="1">
         <v>0.37522253</v>
       </c>
-      <c r="R49" s="5">
+      <c r="S49" s="5">
         <v>4.3112899999999996</v>
       </c>
-      <c r="S49" s="1">
+      <c r="T49" s="1">
         <v>-0.32813356199999999</v>
       </c>
-      <c r="T49" s="1">
+      <c r="U49" s="1">
         <v>-0.16563102630000001</v>
       </c>
-      <c r="U49" s="1">
+      <c r="V49" s="1">
         <v>-4.8147287800000001E-2</v>
       </c>
-      <c r="V49" s="29"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W49" s="29"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4973,7 +5123,7 @@
         <v>231</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>123</v>
@@ -5004,29 +5154,32 @@
         <v>126.0433</v>
       </c>
       <c r="O50" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P50" s="8">
         <v>0.15105399999999999</v>
       </c>
       <c r="Q50" s="1">
+        <v>0.3647936</v>
+      </c>
+      <c r="R50" s="1">
         <v>0.36369422000000001</v>
       </c>
-      <c r="R50" s="5">
+      <c r="S50" s="5">
         <v>3.29053</v>
       </c>
-      <c r="S50" s="1">
+      <c r="T50" s="1">
         <v>-0.32016056100000001</v>
       </c>
-      <c r="T50" s="1">
+      <c r="U50" s="1">
         <v>-0.15881186329999999</v>
       </c>
-      <c r="U50" s="1">
+      <c r="V50" s="1">
         <v>-4.8644441300000001E-2</v>
       </c>
-      <c r="V50" s="29"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W50" s="29"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5040,7 +5193,7 @@
         <v>233</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>123</v>
@@ -5071,29 +5224,32 @@
         <v>139.48609999999999</v>
       </c>
       <c r="O51" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P51" s="8">
         <v>5.71674E-2</v>
       </c>
       <c r="Q51" s="1">
+        <v>0.17286074000000001</v>
+      </c>
+      <c r="R51" s="1">
         <v>0.12594672000000001</v>
       </c>
-      <c r="R51" s="5">
+      <c r="S51" s="5">
         <v>4.1886000000000001</v>
       </c>
-      <c r="S51" s="1">
+      <c r="T51" s="1">
         <v>0.79789055200000003</v>
       </c>
-      <c r="T51" s="1">
+      <c r="U51" s="1">
         <v>-6.4671438400000003E-2</v>
       </c>
-      <c r="U51" s="1">
+      <c r="V51" s="1">
         <v>0.1413313789</v>
       </c>
-      <c r="V51" s="29"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W51" s="29"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5107,7 +5263,7 @@
         <v>235</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>123</v>
@@ -5138,29 +5294,32 @@
         <v>126.1069</v>
       </c>
       <c r="O52" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P52" s="8">
         <v>0.14583399999999999</v>
       </c>
       <c r="Q52" s="1">
+        <v>0.22796863000000001</v>
+      </c>
+      <c r="R52" s="1">
         <v>0.13944943000000001</v>
       </c>
-      <c r="R52" s="5">
+      <c r="S52" s="5">
         <v>2.3808199999999999</v>
       </c>
-      <c r="S52" s="1">
+      <c r="T52" s="1">
         <v>-0.31174031299999999</v>
       </c>
-      <c r="T52" s="1">
+      <c r="U52" s="1">
         <v>8.1650291799999997E-2</v>
       </c>
-      <c r="U52" s="1">
+      <c r="V52" s="1">
         <v>8.7021497500000003E-2</v>
       </c>
-      <c r="V52" s="29"/>
-    </row>
-    <row r="53" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W52" s="29"/>
+    </row>
+    <row r="53" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
         <v>52</v>
       </c>
@@ -5174,7 +5333,7 @@
         <v>237</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F53" s="21" t="s">
         <v>123</v>
@@ -5205,30 +5364,33 @@
         <v>117.38890000000001</v>
       </c>
       <c r="O53" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P53" s="28">
         <v>0.14757799999999999</v>
       </c>
       <c r="Q53" s="1">
+        <v>0.21876930999999999</v>
+      </c>
+      <c r="R53" s="1">
         <v>0.12801309999999999</v>
       </c>
-      <c r="R53" s="20">
+      <c r="S53" s="20">
         <v>2.1774100000000001</v>
       </c>
-      <c r="S53" s="19">
+      <c r="T53" s="19">
         <v>0.47295551200000002</v>
       </c>
-      <c r="T53" s="19">
+      <c r="U53" s="19">
         <v>-9.6752529000000004E-3</v>
       </c>
-      <c r="U53" s="19">
+      <c r="V53" s="19">
         <v>1.37455622E-2</v>
       </c>
-      <c r="V53" s="29"/>
-      <c r="W53" s="1"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W53" s="29"/>
+      <c r="X53" s="1"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -5242,7 +5404,7 @@
         <v>239</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>123</v>
@@ -5273,29 +5435,32 @@
         <v>125.9081</v>
       </c>
       <c r="O54" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P54" s="8">
         <v>7.3628100000000002E-2</v>
       </c>
       <c r="Q54" s="1">
+        <v>0.13268340000000001</v>
+      </c>
+      <c r="R54" s="1">
         <v>9.3225749999999996E-2</v>
       </c>
-      <c r="R54" s="5">
+      <c r="S54" s="5">
         <v>2.7558199999999999</v>
       </c>
-      <c r="S54" s="1">
+      <c r="T54" s="1">
         <v>-0.29093685499999999</v>
       </c>
-      <c r="T54" s="1">
+      <c r="U54" s="1">
         <v>-0.13073505839999999</v>
       </c>
-      <c r="U54" s="1">
+      <c r="V54" s="1">
         <v>-4.0624580799999997E-2</v>
       </c>
-      <c r="V54" s="29"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W54" s="29"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5309,7 +5474,7 @@
         <v>241</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>123</v>
@@ -5340,29 +5505,32 @@
         <v>138.3494</v>
       </c>
       <c r="O55" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P55" s="8">
         <v>8.0098500000000003E-2</v>
       </c>
       <c r="Q55" s="1">
+        <v>0.19273483999999999</v>
+      </c>
+      <c r="R55" s="1">
         <v>0.12836470999999999</v>
       </c>
-      <c r="R55" s="5">
+      <c r="S55" s="5">
         <v>2.92334</v>
       </c>
-      <c r="S55" s="1">
+      <c r="T55" s="1">
         <v>0.33587060800000001</v>
       </c>
-      <c r="T55" s="1">
+      <c r="U55" s="1">
         <v>-1.0860216000000001E-2</v>
       </c>
-      <c r="U55" s="1">
+      <c r="V55" s="1">
         <v>1.03809964E-2</v>
       </c>
-      <c r="V55" s="29"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W55" s="29"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5376,7 +5544,7 @@
         <v>243</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>123</v>
@@ -5407,29 +5575,32 @@
         <v>147.55500000000001</v>
       </c>
       <c r="O56" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P56" s="8">
         <v>0.15491099999999999</v>
       </c>
       <c r="Q56" s="1">
+        <v>0.20501506</v>
+      </c>
+      <c r="R56" s="1">
         <v>9.9645410000000004E-2</v>
       </c>
-      <c r="R56" s="5">
+      <c r="S56" s="5">
         <v>2.0035400000000001</v>
       </c>
-      <c r="S56" s="1">
+      <c r="T56" s="1">
         <v>0.47016355500000001</v>
       </c>
-      <c r="T56" s="1">
+      <c r="U56" s="1">
         <v>-3.0856911999999998E-3</v>
       </c>
-      <c r="U56" s="1">
+      <c r="V56" s="1">
         <v>1.7553711E-2</v>
       </c>
-      <c r="V56" s="29"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W56" s="29"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5443,7 +5614,7 @@
         <v>245</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>123</v>
@@ -5474,29 +5645,32 @@
         <v>139.4794</v>
       </c>
       <c r="O57" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P57" s="8">
         <v>0.23439599999999999</v>
       </c>
       <c r="Q57" s="1">
+        <v>0.42617487999999998</v>
+      </c>
+      <c r="R57" s="1">
         <v>0.27824366</v>
       </c>
-      <c r="R57" s="5">
+      <c r="S57" s="5">
         <v>2.52617</v>
       </c>
-      <c r="S57" s="1">
+      <c r="T57" s="1">
         <v>0.76004635399999998</v>
       </c>
-      <c r="T57" s="1">
+      <c r="U57" s="1">
         <v>-3.3353387399999997E-2</v>
       </c>
-      <c r="U57" s="1">
+      <c r="V57" s="1">
         <v>6.8480630400000006E-2</v>
       </c>
-      <c r="V57" s="29"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W57" s="29"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5510,7 +5684,7 @@
         <v>247</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>123</v>
@@ -5541,29 +5715,32 @@
         <v>139.56639999999999</v>
       </c>
       <c r="O58" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P58" s="8">
         <v>9.6052700000000005E-2</v>
       </c>
       <c r="Q58" s="1">
+        <v>0.17016268000000001</v>
+      </c>
+      <c r="R58" s="1">
         <v>0.10018982999999999</v>
       </c>
-      <c r="R58" s="5">
+      <c r="S58" s="5">
         <v>2.60025</v>
       </c>
-      <c r="S58" s="1">
+      <c r="T58" s="1">
         <v>0.37430321799999999</v>
       </c>
-      <c r="T58" s="1">
+      <c r="U58" s="1">
         <v>-1.0105024900000001E-2</v>
       </c>
-      <c r="U58" s="1">
+      <c r="V58" s="1">
         <v>1.3905507900000001E-2</v>
       </c>
-      <c r="V58" s="29"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W58" s="29"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5606,29 +5783,32 @@
         <v>131.6447</v>
       </c>
       <c r="O59" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P59" s="8">
         <v>0.26230300000000001</v>
       </c>
       <c r="Q59" s="1">
+        <v>0.36644417000000001</v>
+      </c>
+      <c r="R59" s="1">
         <v>0.19838569</v>
       </c>
-      <c r="R59" s="5">
+      <c r="S59" s="5">
         <v>1.75868</v>
       </c>
-      <c r="S59" s="1">
+      <c r="T59" s="1">
         <v>-0.23190828699999999</v>
       </c>
-      <c r="T59" s="1">
+      <c r="U59" s="1">
         <v>-8.1314045500000001E-2</v>
       </c>
-      <c r="U59" s="1">
+      <c r="V59" s="1">
         <v>-2.0787616500000002E-2</v>
       </c>
-      <c r="V59" s="29"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W59" s="29"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5642,7 +5822,7 @@
         <v>251</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>123</v>
@@ -5673,29 +5853,32 @@
         <v>139.31110000000001</v>
       </c>
       <c r="O60" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P60" s="8">
         <v>7.8853900000000005E-2</v>
       </c>
       <c r="Q60" s="1">
+        <v>0.17554146000000001</v>
+      </c>
+      <c r="R60" s="1">
         <v>0.12548098999999999</v>
       </c>
-      <c r="R60" s="5">
+      <c r="S60" s="5">
         <v>2.9786000000000001</v>
       </c>
-      <c r="S60" s="1">
+      <c r="T60" s="1">
         <v>0.31743450400000001</v>
       </c>
-      <c r="T60" s="1">
+      <c r="U60" s="1">
         <v>-1.66405983E-2</v>
       </c>
-      <c r="U60" s="1">
+      <c r="V60" s="1">
         <v>9.9364268000000002E-3</v>
       </c>
-      <c r="V60" s="29"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W60" s="29"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5709,7 +5892,7 @@
         <v>253</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>123</v>
@@ -5740,29 +5923,32 @@
         <v>136.41900000000001</v>
       </c>
       <c r="O61" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P61" s="8">
         <v>9.7443399999999999E-2</v>
       </c>
       <c r="Q61" s="1">
+        <v>0.19675434</v>
+      </c>
+      <c r="R61" s="1">
         <v>0.12871915</v>
       </c>
-      <c r="R61" s="5">
+      <c r="S61" s="5">
         <v>2.6964299999999999</v>
       </c>
-      <c r="S61" s="1">
+      <c r="T61" s="1">
         <v>-0.17527651999999999</v>
       </c>
-      <c r="T61" s="1">
+      <c r="U61" s="1">
         <v>0.24788329570000001</v>
       </c>
-      <c r="U61" s="1">
+      <c r="V61" s="1">
         <v>-0.11070067040000001</v>
       </c>
-      <c r="V61" s="29"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W61" s="29"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5776,7 +5962,7 @@
         <v>255</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>123</v>
@@ -5807,29 +5993,32 @@
         <v>133.62280000000001</v>
       </c>
       <c r="O62" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P62" s="8">
         <v>0.159332</v>
       </c>
       <c r="Q62" s="1">
+        <v>0.24476044999999999</v>
+      </c>
+      <c r="R62" s="1">
         <v>0.13024583000000001</v>
       </c>
-      <c r="R62" s="5">
+      <c r="S62" s="5">
         <v>1.93588</v>
       </c>
-      <c r="S62" s="1">
+      <c r="T62" s="1">
         <v>-9.5547216000000004E-2</v>
       </c>
-      <c r="T62" s="1">
+      <c r="U62" s="1">
         <v>-5.3593109100000001E-2</v>
       </c>
-      <c r="U62" s="1">
+      <c r="V62" s="1">
         <v>-1.9511794200000002E-2</v>
       </c>
-      <c r="V62" s="29"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W62" s="29"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5843,7 +6032,7 @@
         <v>257</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>123</v>
@@ -5874,29 +6063,32 @@
         <v>146.96109999999999</v>
       </c>
       <c r="O63" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P63" s="8">
         <v>3.2185499999999999E-2</v>
       </c>
       <c r="Q63" s="1">
+        <v>0.1429897</v>
+      </c>
+      <c r="R63" s="1">
         <v>0.11977354</v>
       </c>
-      <c r="R63" s="5">
+      <c r="S63" s="5">
         <v>4.0529400000000004</v>
       </c>
-      <c r="S63" s="1">
+      <c r="T63" s="1">
         <v>0.24949354800000001</v>
       </c>
-      <c r="T63" s="1">
+      <c r="U63" s="1">
         <v>3.1868453900000003E-2</v>
       </c>
-      <c r="U63" s="1">
+      <c r="V63" s="1">
         <v>3.0348368999999998E-3</v>
       </c>
-      <c r="V63" s="29"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W63" s="29"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5910,7 +6102,7 @@
         <v>259</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>123</v>
@@ -5941,29 +6133,32 @@
         <v>149.84639999999999</v>
       </c>
       <c r="O64" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P64" s="8">
         <v>0.10109899999999999</v>
       </c>
       <c r="Q64" s="1">
+        <v>0.17886603000000001</v>
+      </c>
+      <c r="R64" s="1">
         <v>0.10000011</v>
       </c>
-      <c r="R64" s="5">
+      <c r="S64" s="5">
         <v>2.4992399999999999</v>
       </c>
-      <c r="S64" s="1">
+      <c r="T64" s="1">
         <v>0.45536359500000001</v>
       </c>
-      <c r="T64" s="1">
+      <c r="U64" s="1">
         <v>1.9682517000000001E-3</v>
       </c>
-      <c r="U64" s="1">
+      <c r="V64" s="1">
         <v>1.14347678E-2</v>
       </c>
-      <c r="V64" s="29"/>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W64" s="29"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5977,7 +6172,7 @@
         <v>261</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>123</v>
@@ -6008,29 +6203,32 @@
         <v>139.38059999999999</v>
       </c>
       <c r="O65" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P65" s="8">
         <v>9.4200999999999993E-2</v>
       </c>
       <c r="Q65" s="1">
+        <v>0.17097825</v>
+      </c>
+      <c r="R65" s="1">
         <v>0.12469589</v>
       </c>
-      <c r="R65" s="5">
+      <c r="S65" s="5">
         <v>2.6288</v>
       </c>
-      <c r="S65" s="1">
+      <c r="T65" s="1">
         <v>0.30051155699999998</v>
       </c>
-      <c r="T65" s="1">
+      <c r="U65" s="1">
         <v>-1.4319114399999999E-2</v>
       </c>
-      <c r="U65" s="1">
+      <c r="V65" s="1">
         <v>1.0533780100000001E-2</v>
       </c>
-      <c r="V65" s="29"/>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W65" s="29"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -6044,7 +6242,7 @@
         <v>263</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>123</v>
@@ -6075,29 +6273,32 @@
         <v>139.75</v>
       </c>
       <c r="O66" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P66" s="8">
         <v>0.19339500000000001</v>
       </c>
       <c r="Q66" s="1">
+        <v>0.31315333000000001</v>
+      </c>
+      <c r="R66" s="1">
         <v>0.19249852000000001</v>
       </c>
-      <c r="R66" s="5">
+      <c r="S66" s="5">
         <v>1.8450299999999999</v>
       </c>
-      <c r="S66" s="1">
+      <c r="T66" s="1">
         <v>0.107614995</v>
       </c>
-      <c r="T66" s="1">
+      <c r="U66" s="1">
         <v>0.1888494195</v>
       </c>
-      <c r="U66" s="1">
+      <c r="V66" s="1">
         <v>-0.27300879929999999</v>
       </c>
-      <c r="V66" s="29"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W66" s="29"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -6111,7 +6312,7 @@
         <v>265</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>123</v>
@@ -6142,29 +6343,32 @@
         <v>133.11500000000001</v>
       </c>
       <c r="O67" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P67" s="8">
         <v>0.115538</v>
       </c>
       <c r="Q67" s="1">
+        <v>0.20003086</v>
+      </c>
+      <c r="R67" s="1">
         <v>0.12644482000000001</v>
       </c>
-      <c r="R67" s="5">
+      <c r="S67" s="5">
         <v>2.5122399999999998</v>
       </c>
-      <c r="S67" s="1">
+      <c r="T67" s="1">
         <v>-5.0197778999999998E-2</v>
       </c>
-      <c r="T67" s="1">
+      <c r="U67" s="1">
         <v>-3.0185796500000001E-2</v>
       </c>
-      <c r="U67" s="1">
+      <c r="V67" s="1">
         <v>-1.3916500300000001E-2</v>
       </c>
-      <c r="V67" s="29"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W67" s="29"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -6178,7 +6382,7 @@
         <v>267</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>123</v>
@@ -6209,29 +6413,32 @@
         <v>126.1829</v>
       </c>
       <c r="O68" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P68" s="8">
         <v>5.4367800000000001E-2</v>
       </c>
       <c r="Q68" s="1">
+        <v>0.12722504000000001</v>
+      </c>
+      <c r="R68" s="1">
         <v>9.4081419999999999E-2</v>
       </c>
-      <c r="R68" s="5">
+      <c r="S68" s="5">
         <v>3.4942299999999999</v>
       </c>
-      <c r="S68" s="1">
+      <c r="T68" s="1">
         <v>-0.279256597</v>
       </c>
-      <c r="T68" s="1">
+      <c r="U68" s="1">
         <v>0.1160677732</v>
       </c>
-      <c r="U68" s="1">
+      <c r="V68" s="1">
         <v>0.1038874227</v>
       </c>
-      <c r="V68" s="29"/>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W68" s="29"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -6245,7 +6452,7 @@
         <v>269</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>123</v>
@@ -6276,29 +6483,32 @@
         <v>145.76060000000001</v>
       </c>
       <c r="O69" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P69" s="8">
         <v>0.11920600000000001</v>
       </c>
       <c r="Q69" s="1">
+        <v>0.14638007</v>
+      </c>
+      <c r="R69" s="1">
         <v>9.3755980000000003E-2</v>
       </c>
-      <c r="R69" s="5">
+      <c r="S69" s="5">
         <v>2.2052200000000002</v>
       </c>
-      <c r="S69" s="1">
+      <c r="T69" s="1">
         <v>0.60199305800000003</v>
       </c>
-      <c r="T69" s="1">
+      <c r="U69" s="1">
         <v>-1.2374825399999999E-2</v>
       </c>
-      <c r="U69" s="1">
+      <c r="V69" s="1">
         <v>3.6948433000000003E-2</v>
       </c>
-      <c r="V69" s="29"/>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W69" s="29"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -6312,7 +6522,7 @@
         <v>271</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>123</v>
@@ -6343,29 +6553,32 @@
         <v>141.29419999999999</v>
       </c>
       <c r="O70" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P70" s="8">
         <v>6.5705299999999994E-2</v>
       </c>
       <c r="Q70" s="1">
+        <v>0.14205973999999999</v>
+      </c>
+      <c r="R70" s="1">
         <v>9.4070260000000003E-2</v>
       </c>
-      <c r="R70" s="5">
+      <c r="S70" s="5">
         <v>3.0411800000000002</v>
       </c>
-      <c r="S70" s="1">
+      <c r="T70" s="1">
         <v>0.38795049799999998</v>
       </c>
-      <c r="T70" s="1">
+      <c r="U70" s="1">
         <v>-7.6160780000000001E-3</v>
       </c>
-      <c r="U70" s="1">
+      <c r="V70" s="1">
         <v>1.8892525600000001E-2</v>
       </c>
-      <c r="V70" s="29"/>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W70" s="29"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -6379,7 +6592,7 @@
         <v>273</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>123</v>
@@ -6410,29 +6623,32 @@
         <v>123.62609999999999</v>
       </c>
       <c r="O71" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P71" s="8">
         <v>6.1848500000000001E-2</v>
       </c>
       <c r="Q71" s="1">
+        <v>0.25164312</v>
+      </c>
+      <c r="R71" s="1">
         <v>0.23942086000000001</v>
       </c>
-      <c r="R71" s="5">
+      <c r="S71" s="5">
         <v>3.9582799999999998</v>
       </c>
-      <c r="S71" s="1">
+      <c r="T71" s="1">
         <v>-0.23223585899999999</v>
       </c>
-      <c r="T71" s="1">
+      <c r="U71" s="1">
         <v>4.6431981099999999E-2</v>
       </c>
-      <c r="U71" s="1">
+      <c r="V71" s="1">
         <v>3.01979593E-2</v>
       </c>
-      <c r="V71" s="29"/>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W71" s="29"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -6446,7 +6662,7 @@
         <v>275</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>123</v>
@@ -6477,29 +6693,32 @@
         <v>145.76060000000001</v>
       </c>
       <c r="O72" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P72" s="8">
         <v>4.3020200000000001E-2</v>
       </c>
       <c r="Q72" s="1">
+        <v>0.10380584</v>
+      </c>
+      <c r="R72" s="1">
         <v>9.0403109999999995E-2</v>
       </c>
-      <c r="R72" s="5">
+      <c r="S72" s="5">
         <v>3.6459899999999998</v>
       </c>
-      <c r="S72" s="1">
+      <c r="T72" s="1">
         <v>0.56107419199999997</v>
       </c>
-      <c r="T72" s="1">
+      <c r="U72" s="1">
         <v>-1.54946926E-2</v>
       </c>
-      <c r="U72" s="1">
+      <c r="V72" s="1">
         <v>3.8523703800000003E-2</v>
       </c>
-      <c r="V72" s="29"/>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W72" s="29"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -6513,7 +6732,7 @@
         <v>277</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>123</v>
@@ -6544,29 +6763,32 @@
         <v>128.41720000000001</v>
       </c>
       <c r="O73" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P73" s="8">
         <v>2.5778300000000001E-2</v>
       </c>
       <c r="Q73" s="1">
+        <v>0.10152268</v>
+      </c>
+      <c r="R73" s="1">
         <v>8.9393769999999997E-2</v>
       </c>
-      <c r="R73" s="5">
+      <c r="S73" s="5">
         <v>4.1529100000000003</v>
       </c>
-      <c r="S73" s="1">
+      <c r="T73" s="1">
         <v>-0.25224289999999999</v>
       </c>
-      <c r="T73" s="1">
+      <c r="U73" s="1">
         <v>-0.1558548324</v>
       </c>
-      <c r="U73" s="1">
+      <c r="V73" s="1">
         <v>-4.7448065900000003E-2</v>
       </c>
-      <c r="V73" s="29"/>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W73" s="29"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -6609,29 +6831,32 @@
         <v>139.4794</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P74" s="8">
         <v>6.6603700000000002E-2</v>
       </c>
       <c r="Q74" s="1">
+        <v>0.13280492999999999</v>
+      </c>
+      <c r="R74" s="1">
         <v>9.3306780000000006E-2</v>
       </c>
-      <c r="R74" s="5">
+      <c r="S74" s="5">
         <v>3.1527599999999998</v>
       </c>
-      <c r="S74" s="1">
+      <c r="T74" s="1">
         <v>0.69214482399999999</v>
       </c>
-      <c r="T74" s="1">
+      <c r="U74" s="1">
         <v>-3.8786800500000003E-2</v>
       </c>
-      <c r="U74" s="1">
+      <c r="V74" s="1">
         <v>7.8734418099999995E-2</v>
       </c>
-      <c r="V74" s="29"/>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W74" s="29"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -6645,7 +6870,7 @@
         <v>281</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>123</v>
@@ -6676,29 +6901,32 @@
         <v>147.08500000000001</v>
       </c>
       <c r="O75" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P75" s="8">
         <v>0.11543</v>
       </c>
       <c r="Q75" s="1">
+        <v>0.19883018999999999</v>
+      </c>
+      <c r="R75" s="1">
         <v>0.12671721999999999</v>
       </c>
-      <c r="R75" s="5">
+      <c r="S75" s="5">
         <v>2.2971599999999999</v>
       </c>
-      <c r="S75" s="1">
+      <c r="T75" s="1">
         <v>0.52252115600000004</v>
       </c>
-      <c r="T75" s="1">
+      <c r="U75" s="1">
         <v>-8.7784460000000001E-4</v>
       </c>
-      <c r="U75" s="1">
+      <c r="V75" s="1">
         <v>2.5668669799999998E-2</v>
       </c>
-      <c r="V75" s="29"/>
-    </row>
-    <row r="76" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W75" s="29"/>
+    </row>
+    <row r="76" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -6712,7 +6940,7 @@
         <v>283</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>123</v>
@@ -6743,30 +6971,33 @@
         <v>140.83330000000001</v>
       </c>
       <c r="O76" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P76" s="8">
         <v>0.10366400000000001</v>
       </c>
       <c r="Q76" s="1">
+        <v>0.46859341999999998</v>
+      </c>
+      <c r="R76" s="1">
         <v>0.39839753999999999</v>
       </c>
-      <c r="R76" s="5">
+      <c r="S76" s="5">
         <v>5.1962299999999999</v>
       </c>
-      <c r="S76" s="1">
+      <c r="T76" s="1">
         <v>0.123872832</v>
       </c>
-      <c r="T76" s="1">
+      <c r="U76" s="1">
         <v>0.21985875999999999</v>
       </c>
-      <c r="U76" s="1">
+      <c r="V76" s="1">
         <v>-0.3142479306</v>
       </c>
-      <c r="V76" s="29"/>
-      <c r="W76" s="1"/>
-    </row>
-    <row r="77" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W76" s="29"/>
+      <c r="X76" s="1"/>
+    </row>
+    <row r="77" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -6780,7 +7011,7 @@
         <v>285</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>123</v>
@@ -6811,30 +7042,33 @@
         <v>143.18690000000001</v>
       </c>
       <c r="O77" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P77" s="8">
         <v>3.2928899999999997E-2</v>
       </c>
       <c r="Q77" s="1">
+        <v>0.1188162</v>
+      </c>
+      <c r="R77" s="1">
         <v>9.1846730000000001E-2</v>
       </c>
-      <c r="R77" s="5">
+      <c r="S77" s="5">
         <v>4.1622000000000003</v>
       </c>
-      <c r="S77" s="1">
+      <c r="T77" s="1">
         <v>0.44014926799999998</v>
       </c>
-      <c r="T77" s="1">
+      <c r="U77" s="1">
         <v>1.4566991600000001E-2</v>
       </c>
-      <c r="U77" s="1">
+      <c r="V77" s="1">
         <v>1.23710633E-2</v>
       </c>
-      <c r="V77" s="29"/>
-      <c r="W77" s="1"/>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W77" s="29"/>
+      <c r="X77" s="1"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -6848,7 +7082,7 @@
         <v>287</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>123</v>
@@ -6879,29 +7113,32 @@
         <v>136.41900000000001</v>
       </c>
       <c r="O78" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P78" s="8">
         <v>0.16592699999999999</v>
       </c>
       <c r="Q78" s="1">
+        <v>0.43318509999999999</v>
+      </c>
+      <c r="R78" s="1">
         <v>0.37454757</v>
       </c>
-      <c r="R78" s="5">
+      <c r="S78" s="5">
         <v>3.0583100000000001</v>
       </c>
-      <c r="S78" s="1">
+      <c r="T78" s="1">
         <v>-0.19614661899999999</v>
       </c>
-      <c r="T78" s="1">
+      <c r="U78" s="1">
         <v>0.26557184700000003</v>
       </c>
-      <c r="U78" s="1">
+      <c r="V78" s="1">
         <v>-0.1199157547</v>
       </c>
-      <c r="V78" s="29"/>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W78" s="29"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -6915,7 +7152,7 @@
         <v>289</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>123</v>
@@ -6946,29 +7183,32 @@
         <v>139.5917</v>
       </c>
       <c r="O79" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P79" s="8">
         <v>0.164405</v>
       </c>
       <c r="Q79" s="1">
+        <v>0.32021909999999998</v>
+      </c>
+      <c r="R79" s="1">
         <v>0.20015351000000001</v>
       </c>
-      <c r="R79" s="5">
+      <c r="S79" s="5">
         <v>2.1430199999999999</v>
       </c>
-      <c r="S79" s="1">
+      <c r="T79" s="1">
         <v>0.13431984799999999</v>
       </c>
-      <c r="T79" s="1">
+      <c r="U79" s="1">
         <v>0.44819054180000001</v>
       </c>
-      <c r="U79" s="1">
+      <c r="V79" s="1">
         <v>-0.72737247569999997</v>
       </c>
-      <c r="V79" s="29"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W79" s="29"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -6982,7 +7222,7 @@
         <v>291</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>123</v>
@@ -7013,29 +7253,32 @@
         <v>143.18690000000001</v>
       </c>
       <c r="O80" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P80" s="8">
         <v>5.3786199999999999E-2</v>
       </c>
       <c r="Q80" s="1">
+        <v>0.13489013999999999</v>
+      </c>
+      <c r="R80" s="1">
         <v>9.3841099999999997E-2</v>
       </c>
-      <c r="R80" s="5">
+      <c r="S80" s="5">
         <v>3.50413</v>
       </c>
-      <c r="S80" s="1">
+      <c r="T80" s="1">
         <v>0.45097662700000002</v>
       </c>
-      <c r="T80" s="1">
+      <c r="U80" s="1">
         <v>1.0181932899999999E-2</v>
       </c>
-      <c r="U80" s="1">
+      <c r="V80" s="1">
         <v>1.06233492E-2</v>
       </c>
-      <c r="V80" s="29"/>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="29"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -7049,7 +7292,7 @@
         <v>293</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>123</v>
@@ -7080,29 +7323,32 @@
         <v>136.54400000000001</v>
       </c>
       <c r="O81" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P81" s="8">
         <v>3.7147199999999998E-2</v>
       </c>
       <c r="Q81" s="1">
+        <v>0.2115351</v>
+      </c>
+      <c r="R81" s="1">
         <v>0.18206705000000001</v>
       </c>
-      <c r="R81" s="5">
+      <c r="S81" s="5">
         <v>3.9273199999999999</v>
       </c>
-      <c r="S81" s="1">
+      <c r="T81" s="1">
         <v>-9.5676800000000006E-2</v>
       </c>
-      <c r="T81" s="1">
+      <c r="U81" s="1">
         <v>0.16108997999999999</v>
       </c>
-      <c r="U81" s="1">
+      <c r="V81" s="1">
         <v>-9.1532552200000006E-2</v>
       </c>
-      <c r="V81" s="29"/>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="29"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -7116,7 +7362,7 @@
         <v>295</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>123</v>
@@ -7147,29 +7393,32 @@
         <v>134.8108</v>
       </c>
       <c r="O82" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P82" s="8">
         <v>0.19192300000000001</v>
       </c>
       <c r="Q82" s="1">
+        <v>0.52290404000000001</v>
+      </c>
+      <c r="R82" s="1">
         <v>0.49337047000000001</v>
       </c>
-      <c r="R82" s="5">
+      <c r="S82" s="5">
         <v>5.0019299999999998</v>
       </c>
-      <c r="S82" s="1">
+      <c r="T82" s="1">
         <v>0.76123030800000002</v>
       </c>
-      <c r="T82" s="1">
+      <c r="U82" s="1">
         <v>-3.7223348000000003E-2</v>
       </c>
-      <c r="U82" s="1">
+      <c r="V82" s="1">
         <v>6.7740459200000006E-2</v>
       </c>
-      <c r="V82" s="29"/>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="29"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -7183,7 +7432,7 @@
         <v>297</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>123</v>
@@ -7214,29 +7463,32 @@
         <v>133.72800000000001</v>
       </c>
       <c r="O83" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P83" s="8">
         <v>1.69914E-2</v>
       </c>
       <c r="Q83" s="1">
+        <v>0.10825664</v>
+      </c>
+      <c r="R83" s="1">
         <v>9.0075219999999998E-2</v>
       </c>
-      <c r="R83" s="5">
+      <c r="S83" s="5">
         <v>4.9111500000000001</v>
       </c>
-      <c r="S83" s="1">
+      <c r="T83" s="1">
         <v>-0.20055304900000001</v>
       </c>
-      <c r="T83" s="1">
+      <c r="U83" s="1">
         <v>0.14482359450000001</v>
       </c>
-      <c r="U83" s="1">
+      <c r="V83" s="1">
         <v>-6.9796798999999998E-3</v>
       </c>
-      <c r="V83" s="29"/>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="29"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -7250,7 +7502,7 @@
         <v>299</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>123</v>
@@ -7281,29 +7533,32 @@
         <v>127.36190000000001</v>
       </c>
       <c r="O84" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P84" s="8">
         <v>5.08884E-2</v>
       </c>
       <c r="Q84" s="1">
+        <v>0.20651746000000001</v>
+      </c>
+      <c r="R84" s="1">
         <v>0.18227710999999999</v>
       </c>
-      <c r="R84" s="5">
+      <c r="S84" s="5">
         <v>4.6044400000000003</v>
       </c>
-      <c r="S84" s="1">
+      <c r="T84" s="1">
         <v>-0.27437285099999997</v>
       </c>
-      <c r="T84" s="1">
+      <c r="U84" s="1">
         <v>-0.1341915706</v>
       </c>
-      <c r="U84" s="1">
+      <c r="V84" s="1">
         <v>-4.4940438100000001E-2</v>
       </c>
-      <c r="V84" s="29"/>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="29"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -7317,7 +7572,7 @@
         <v>301</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>123</v>
@@ -7348,29 +7603,32 @@
         <v>133.72800000000001</v>
       </c>
       <c r="O85" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P85" s="8">
         <v>0.151362</v>
       </c>
       <c r="Q85" s="1">
+        <v>0.18047434000000001</v>
+      </c>
+      <c r="R85" s="1">
         <v>0.12723683999999999</v>
       </c>
-      <c r="R85" s="5">
+      <c r="S85" s="5">
         <v>3.3377400000000002</v>
       </c>
-      <c r="S85" s="1">
+      <c r="T85" s="1">
         <v>-0.23279339700000001</v>
       </c>
-      <c r="T85" s="1">
+      <c r="U85" s="1">
         <v>0.1213019986</v>
       </c>
-      <c r="U85" s="1">
+      <c r="V85" s="1">
         <v>-1.147144E-4</v>
       </c>
-      <c r="V85" s="29"/>
-    </row>
-    <row r="86" spans="1:22" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W85" s="29"/>
+    </row>
+    <row r="86" spans="1:23" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="31">
         <v>85</v>
       </c>
@@ -7402,29 +7660,32 @@
       <c r="M86" s="30"/>
       <c r="N86" s="30"/>
       <c r="O86" s="41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P86" s="39">
         <v>6.7221900000000001E-2</v>
       </c>
-      <c r="Q86" s="31">
+      <c r="Q86" s="1">
+        <v>0.16595178999999999</v>
+      </c>
+      <c r="R86" s="31">
         <v>0.12392633</v>
       </c>
-      <c r="R86" s="30">
+      <c r="S86" s="30">
         <v>3.2744900000000001</v>
       </c>
-      <c r="S86" s="31">
+      <c r="T86" s="31">
         <v>1.9250270999999999E-2</v>
       </c>
-      <c r="T86" s="31">
+      <c r="U86" s="31">
         <v>-2.0535761900000001E-2</v>
       </c>
-      <c r="U86" s="31">
+      <c r="V86" s="31">
         <v>-1.11272182E-2</v>
       </c>
-      <c r="V86" s="40"/>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="40"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -7438,7 +7699,7 @@
         <v>305</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>123</v>
@@ -7469,29 +7730,32 @@
         <v>126.06010000000001</v>
       </c>
       <c r="O87" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P87" s="8">
         <v>8.3583000000000005E-2</v>
       </c>
       <c r="Q87" s="1">
+        <v>0.20544314</v>
+      </c>
+      <c r="R87" s="1">
         <v>0.18428822</v>
       </c>
-      <c r="R87" s="5">
+      <c r="S87" s="5">
         <v>2.8982299999999999</v>
       </c>
-      <c r="S87" s="1">
+      <c r="T87" s="1">
         <v>-0.44009039799999999</v>
       </c>
-      <c r="T87" s="1">
+      <c r="U87" s="1">
         <v>0.34289302179999998</v>
       </c>
-      <c r="U87" s="1">
+      <c r="V87" s="1">
         <v>0.38625186810000001</v>
       </c>
-      <c r="V87" s="29"/>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="29"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -7505,7 +7769,7 @@
         <v>307</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>123</v>
@@ -7536,29 +7800,32 @@
         <v>142.2208</v>
       </c>
       <c r="O88" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P88" s="8">
         <v>7.4772900000000003E-2</v>
       </c>
       <c r="Q88" s="1">
+        <v>0.16056097</v>
+      </c>
+      <c r="R88" s="1">
         <v>0.12378978</v>
       </c>
-      <c r="R88" s="5">
+      <c r="S88" s="5">
         <v>2.8128899999999999</v>
       </c>
-      <c r="S88" s="1">
+      <c r="T88" s="1">
         <v>0.46737801400000001</v>
       </c>
-      <c r="T88" s="1">
+      <c r="U88" s="1">
         <v>-1.3821919199999999E-2</v>
       </c>
-      <c r="U88" s="1">
+      <c r="V88" s="1">
         <v>2.4068385000000001E-2</v>
       </c>
-      <c r="V88" s="29"/>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="29"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -7572,7 +7839,7 @@
         <v>309</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>123</v>
@@ -7603,29 +7870,32 @@
         <v>125.5128</v>
       </c>
       <c r="O89" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P89" s="8">
         <v>8.7968199999999996E-2</v>
       </c>
       <c r="Q89" s="1">
+        <v>0.20044087999999999</v>
+      </c>
+      <c r="R89" s="1">
         <v>0.13125929</v>
       </c>
-      <c r="R89" s="5">
+      <c r="S89" s="5">
         <v>2.9975700000000001</v>
       </c>
-      <c r="S89" s="1">
+      <c r="T89" s="1">
         <v>-0.27065768400000001</v>
       </c>
-      <c r="T89" s="1">
+      <c r="U89" s="1">
         <v>-0.11385201490000001</v>
       </c>
-      <c r="U89" s="1">
+      <c r="V89" s="1">
         <v>-3.7635095399999999E-2</v>
       </c>
-      <c r="V89" s="29"/>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="29"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -7639,7 +7909,7 @@
         <v>311</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>123</v>
@@ -7670,29 +7940,32 @@
         <v>128.69450000000001</v>
       </c>
       <c r="O90" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P90" s="8">
         <v>5.1794199999999999E-2</v>
       </c>
       <c r="Q90" s="1">
+        <v>0.15060609999999999</v>
+      </c>
+      <c r="R90" s="1">
         <v>0.12202223</v>
       </c>
-      <c r="R90" s="5">
+      <c r="S90" s="5">
         <v>3.4617100000000001</v>
       </c>
-      <c r="S90" s="1">
+      <c r="T90" s="1">
         <v>-0.19038245500000001</v>
       </c>
-      <c r="T90" s="1">
+      <c r="U90" s="1">
         <v>6.4531042699999999E-2</v>
       </c>
-      <c r="U90" s="1">
+      <c r="V90" s="1">
         <v>2.9576272800000001E-2</v>
       </c>
-      <c r="V90" s="29"/>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="29"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -7706,7 +7979,7 @@
         <v>313</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>123</v>
@@ -7737,29 +8010,32 @@
         <v>127.9829</v>
       </c>
       <c r="O91" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P91" s="8">
         <v>3.2286599999999999E-2</v>
       </c>
       <c r="Q91" s="1">
+        <v>0.15211986999999999</v>
+      </c>
+      <c r="R91" s="1">
         <v>0.12254587</v>
       </c>
-      <c r="R91" s="5">
+      <c r="S91" s="5">
         <v>4.1667800000000002</v>
       </c>
-      <c r="S91" s="1">
+      <c r="T91" s="1">
         <v>-0.44660965600000002</v>
       </c>
-      <c r="T91" s="1">
+      <c r="U91" s="1">
         <v>0.22428708189999999</v>
       </c>
-      <c r="U91" s="1">
+      <c r="V91" s="1">
         <v>0.2405561501</v>
       </c>
-      <c r="V91" s="29"/>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="29"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -7802,29 +8078,32 @@
         <v>130.08920000000001</v>
       </c>
       <c r="O92" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P92" s="8">
         <v>0.20119999999999999</v>
       </c>
       <c r="Q92" s="1">
+        <v>0.304869</v>
+      </c>
+      <c r="R92" s="1">
         <v>0.19277968000000001</v>
       </c>
-      <c r="R92" s="5">
+      <c r="S92" s="5">
         <v>2.05416</v>
       </c>
-      <c r="S92" s="1">
+      <c r="T92" s="1">
         <v>-0.28297566099999999</v>
       </c>
-      <c r="T92" s="1">
+      <c r="U92" s="1">
         <v>-9.67673743E-2</v>
       </c>
-      <c r="U92" s="1">
+      <c r="V92" s="1">
         <v>-3.2354128900000001E-2</v>
       </c>
-      <c r="V92" s="29"/>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="29"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -7867,29 +8146,32 @@
         <v>126.06010000000001</v>
       </c>
       <c r="O93" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P93" s="8">
         <v>3.81448E-2</v>
       </c>
       <c r="Q93" s="1">
+        <v>0.13923000999999999</v>
+      </c>
+      <c r="R93" s="1">
         <v>0.12199261</v>
       </c>
-      <c r="R93" s="5">
+      <c r="S93" s="5">
         <v>3.6743600000000001</v>
       </c>
-      <c r="S93" s="1">
+      <c r="T93" s="1">
         <v>-0.391421927</v>
       </c>
-      <c r="T93" s="1">
+      <c r="U93" s="1">
         <v>0.32971749789999999</v>
       </c>
-      <c r="U93" s="1">
+      <c r="V93" s="1">
         <v>0.37433986670000002</v>
       </c>
-      <c r="V93" s="29"/>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="29"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -7903,7 +8185,7 @@
         <v>319</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>123</v>
@@ -7934,29 +8216,32 @@
         <v>126.0972</v>
       </c>
       <c r="O94" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P94" s="8">
         <v>5.2218300000000002E-2</v>
       </c>
       <c r="Q94" s="1">
+        <v>0.16342902000000001</v>
+      </c>
+      <c r="R94" s="1">
         <v>0.12498853</v>
       </c>
-      <c r="R94" s="5">
+      <c r="S94" s="5">
         <v>3.6183299999999998</v>
       </c>
-      <c r="S94" s="1">
+      <c r="T94" s="1">
         <v>-0.32571618899999999</v>
       </c>
-      <c r="T94" s="1">
+      <c r="U94" s="1">
         <v>0.1499685318</v>
       </c>
-      <c r="U94" s="1">
+      <c r="V94" s="1">
         <v>0.15581604120000001</v>
       </c>
-      <c r="V94" s="29"/>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="29"/>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -7970,7 +8255,7 @@
         <v>321</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>123</v>
@@ -8001,29 +8286,32 @@
         <v>127.9837</v>
       </c>
       <c r="O95" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P95" s="8">
         <v>8.1722699999999995E-2</v>
       </c>
       <c r="Q95" s="1">
+        <v>0.25036596999999999</v>
+      </c>
+      <c r="R95" s="1">
         <v>0.18839481</v>
       </c>
-      <c r="R95" s="5">
+      <c r="S95" s="5">
         <v>2.9226399999999999</v>
       </c>
-      <c r="S95" s="1">
+      <c r="T95" s="1">
         <v>-0.45759829600000002</v>
       </c>
-      <c r="T95" s="1">
+      <c r="U95" s="1">
         <v>0.21018079149999999</v>
       </c>
-      <c r="U95" s="1">
+      <c r="V95" s="1">
         <v>0.22193479369999999</v>
       </c>
-      <c r="V95" s="29"/>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="29"/>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -8037,7 +8325,7 @@
         <v>323</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>123</v>
@@ -8068,29 +8356,32 @@
         <v>126.0343</v>
       </c>
       <c r="O96" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P96" s="8">
         <v>5.3887900000000002E-2</v>
       </c>
       <c r="Q96" s="1">
+        <v>0.13481789999999999</v>
+      </c>
+      <c r="R96" s="1">
         <v>9.4501689999999999E-2</v>
       </c>
-      <c r="R96" s="5">
+      <c r="S96" s="5">
         <v>3.32165</v>
       </c>
-      <c r="S96" s="1">
+      <c r="T96" s="1">
         <v>-0.333187978</v>
       </c>
-      <c r="T96" s="1">
+      <c r="U96" s="1">
         <v>0.18153823059999999</v>
       </c>
-      <c r="U96" s="1">
+      <c r="V96" s="1">
         <v>0.1677132787</v>
       </c>
-      <c r="V96" s="29"/>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W96" s="29"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -8104,7 +8395,7 @@
         <v>325</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>123</v>
@@ -8135,29 +8426,32 @@
         <v>134.19200000000001</v>
       </c>
       <c r="O97" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P97" s="8">
         <v>8.9360400000000006E-2</v>
       </c>
       <c r="Q97" s="1">
+        <v>0.22518766000000001</v>
+      </c>
+      <c r="R97" s="1">
         <v>0.18574777000000001</v>
       </c>
-      <c r="R97" s="5">
+      <c r="S97" s="5">
         <v>3.0044200000000001</v>
       </c>
-      <c r="S97" s="1">
+      <c r="T97" s="1">
         <v>-0.199754708</v>
       </c>
-      <c r="T97" s="1">
+      <c r="U97" s="1">
         <v>0.11662107269999999</v>
       </c>
-      <c r="U97" s="1">
+      <c r="V97" s="1">
         <v>-1.4835476699999999E-2</v>
       </c>
-      <c r="V97" s="29"/>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W97" s="29"/>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -8171,7 +8465,7 @@
         <v>327</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>123</v>
@@ -8202,29 +8496,32 @@
         <v>126.1982</v>
       </c>
       <c r="O98" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P98" s="8">
         <v>6.9076799999999994E-2</v>
       </c>
       <c r="Q98" s="1">
+        <v>0.22694975000000001</v>
+      </c>
+      <c r="R98" s="1">
         <v>0.18574372</v>
       </c>
-      <c r="R98" s="5">
+      <c r="S98" s="5">
         <v>2.9508999999999999</v>
       </c>
-      <c r="S98" s="1">
+      <c r="T98" s="1">
         <v>-0.27244271399999997</v>
       </c>
-      <c r="T98" s="1">
+      <c r="U98" s="1">
         <v>5.7545659700000001E-2</v>
       </c>
-      <c r="U98" s="1">
+      <c r="V98" s="1">
         <v>6.2631900599999998E-2</v>
       </c>
-      <c r="V98" s="29"/>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W98" s="29"/>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -8238,7 +8535,7 @@
         <v>329</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>123</v>
@@ -8269,29 +8566,32 @@
         <v>126.1069</v>
       </c>
       <c r="O99" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P99" s="8">
         <v>9.1396199999999997E-2</v>
       </c>
       <c r="Q99" s="1">
+        <v>0.14788150999999999</v>
+      </c>
+      <c r="R99" s="1">
         <v>9.7862299999999999E-2</v>
       </c>
-      <c r="R99" s="5">
+      <c r="S99" s="5">
         <v>2.75719</v>
       </c>
-      <c r="S99" s="1">
+      <c r="T99" s="1">
         <v>-0.320883894</v>
       </c>
-      <c r="T99" s="1">
+      <c r="U99" s="1">
         <v>0.1053246629</v>
       </c>
-      <c r="U99" s="1">
+      <c r="V99" s="1">
         <v>0.1008994441</v>
       </c>
-      <c r="V99" s="29"/>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W99" s="29"/>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -8334,29 +8634,32 @@
         <v>130.1003</v>
       </c>
       <c r="O100" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P100" s="8">
         <v>0.16481399999999999</v>
       </c>
       <c r="Q100" s="1">
+        <v>0.26680446000000002</v>
+      </c>
+      <c r="R100" s="1">
         <v>0.19002200999999999</v>
       </c>
-      <c r="R100" s="5">
+      <c r="S100" s="5">
         <v>2.3073100000000002</v>
       </c>
-      <c r="S100" s="1">
+      <c r="T100" s="1">
         <v>-0.27422714500000001</v>
       </c>
-      <c r="T100" s="1">
+      <c r="U100" s="1">
         <v>-0.1088500278</v>
       </c>
-      <c r="U100" s="1">
+      <c r="V100" s="1">
         <v>-3.4204373400000002E-2</v>
       </c>
-      <c r="V100" s="29"/>
-    </row>
-    <row r="101" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W100" s="29"/>
+    </row>
+    <row r="101" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="19">
         <v>100</v>
       </c>
@@ -8370,7 +8673,7 @@
         <v>333</v>
       </c>
       <c r="E101" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F101" s="21" t="s">
         <v>123</v>
@@ -8401,30 +8704,33 @@
         <v>144.71969999999999</v>
       </c>
       <c r="O101" s="27" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P101" s="28">
         <v>1.71211E-2</v>
       </c>
       <c r="Q101" s="1">
+        <v>0.13209473999999999</v>
+      </c>
+      <c r="R101" s="1">
         <v>0.11933079000000001</v>
       </c>
-      <c r="R101" s="20">
+      <c r="S101" s="20">
         <v>6.1096199999999996</v>
       </c>
-      <c r="S101" s="19">
+      <c r="T101" s="19">
         <v>-0.35824946600000002</v>
       </c>
-      <c r="T101" s="19">
+      <c r="U101" s="19">
         <v>-0.25746012019999998</v>
       </c>
-      <c r="U101" s="19">
+      <c r="V101" s="19">
         <v>-7.6586145999999994E-2</v>
       </c>
-      <c r="V101" s="29"/>
-      <c r="W101" s="1"/>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W101" s="29"/>
+      <c r="X101" s="1"/>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -8438,7 +8744,7 @@
         <v>335</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>123</v>
@@ -8469,29 +8775,32 @@
         <v>126.133</v>
       </c>
       <c r="O102" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P102" s="8">
         <v>0.207705</v>
       </c>
       <c r="Q102" s="1">
+        <v>0.55241697999999995</v>
+      </c>
+      <c r="R102" s="1">
         <v>0.49909713999999999</v>
       </c>
-      <c r="R102" s="5">
+      <c r="S102" s="5">
         <v>4.1485500000000002</v>
       </c>
-      <c r="S102" s="1">
+      <c r="T102" s="1">
         <v>-0.34758750500000002</v>
       </c>
-      <c r="T102" s="1">
+      <c r="U102" s="1">
         <v>0.10774568</v>
       </c>
-      <c r="U102" s="1">
+      <c r="V102" s="1">
         <v>0.1203984604</v>
       </c>
-      <c r="V102" s="29"/>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W102" s="29"/>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -8505,7 +8814,7 @@
         <v>337</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>123</v>
@@ -8536,29 +8845,32 @@
         <v>127.6862</v>
       </c>
       <c r="O103" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P103" s="8">
         <v>9.4542799999999996E-2</v>
       </c>
       <c r="Q103" s="1">
+        <v>0.153997</v>
+      </c>
+      <c r="R103" s="1">
         <v>0.12355661</v>
       </c>
-      <c r="R103" s="5">
+      <c r="S103" s="5">
         <v>3.67774</v>
       </c>
-      <c r="S103" s="1">
+      <c r="T103" s="1">
         <v>-0.280866002</v>
       </c>
-      <c r="T103" s="1">
+      <c r="U103" s="1">
         <v>9.9078082600000006E-2</v>
       </c>
-      <c r="U103" s="1">
+      <c r="V103" s="1">
         <v>8.7462578299999996E-2</v>
       </c>
-      <c r="V103" s="29"/>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W103" s="29"/>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -8572,7 +8884,7 @@
         <v>339</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>123</v>
@@ -8603,29 +8915,32 @@
         <v>133.74100000000001</v>
       </c>
       <c r="O104" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P104" s="8">
         <v>0.13080700000000001</v>
       </c>
       <c r="Q104" s="1">
+        <v>0.23260897</v>
+      </c>
+      <c r="R104" s="1">
         <v>0.13979739999999999</v>
       </c>
-      <c r="R104" s="5">
+      <c r="S104" s="5">
         <v>2.36944</v>
       </c>
-      <c r="S104" s="1">
+      <c r="T104" s="1">
         <v>-0.21512690800000001</v>
       </c>
-      <c r="T104" s="1">
+      <c r="U104" s="1">
         <v>0.1080832258</v>
       </c>
-      <c r="U104" s="1">
+      <c r="V104" s="1">
         <v>-5.2585436999999999E-3</v>
       </c>
-      <c r="V104" s="29"/>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W104" s="29"/>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -8639,7 +8954,7 @@
         <v>341</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>123</v>
@@ -8670,29 +8985,32 @@
         <v>127.7076</v>
       </c>
       <c r="O105" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P105" s="8">
         <v>0.112982</v>
       </c>
       <c r="Q105" s="1">
+        <v>0.21148664</v>
+      </c>
+      <c r="R105" s="1">
         <v>0.130605</v>
       </c>
-      <c r="R105" s="5">
+      <c r="S105" s="5">
         <v>2.6023499999999999</v>
       </c>
-      <c r="S105" s="1">
+      <c r="T105" s="1">
         <v>-0.20557579300000001</v>
       </c>
-      <c r="T105" s="1">
+      <c r="U105" s="1">
         <v>4.8991135599999999E-2</v>
       </c>
-      <c r="U105" s="1">
+      <c r="V105" s="1">
         <v>3.3495233899999997E-2</v>
       </c>
-      <c r="V105" s="29"/>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W105" s="29"/>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -8706,7 +9024,7 @@
         <v>343</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>123</v>
@@ -8737,29 +9055,32 @@
         <v>127.7076</v>
       </c>
       <c r="O106" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P106" s="8">
         <v>8.4998599999999994E-2</v>
       </c>
       <c r="Q106" s="1">
+        <v>0.16417319</v>
+      </c>
+      <c r="R106" s="1">
         <v>0.12387902000000001</v>
       </c>
-      <c r="R106" s="5">
+      <c r="S106" s="5">
         <v>2.7813599999999998</v>
       </c>
-      <c r="S106" s="1">
+      <c r="T106" s="1">
         <v>-0.226801682</v>
       </c>
-      <c r="T106" s="1">
+      <c r="U106" s="1">
         <v>5.8482690800000001E-2</v>
       </c>
-      <c r="U106" s="1">
+      <c r="V106" s="1">
         <v>4.4638879100000001E-2</v>
       </c>
-      <c r="V106" s="29"/>
-    </row>
-    <row r="107" spans="1:23" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W106" s="29"/>
+    </row>
+    <row r="107" spans="1:24" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="31">
         <v>106</v>
       </c>
@@ -8773,7 +9094,7 @@
         <v>345</v>
       </c>
       <c r="E107" s="30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F107" s="32" t="s">
         <v>123</v>
@@ -8800,29 +9121,32 @@
       <c r="M107" s="30"/>
       <c r="N107" s="30"/>
       <c r="O107" s="41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P107" s="39">
         <v>3.4310100000000003E-2</v>
       </c>
-      <c r="Q107" s="31">
+      <c r="Q107" s="1">
+        <v>0.11998433</v>
+      </c>
+      <c r="R107" s="31">
         <v>9.1120649999999997E-2</v>
       </c>
-      <c r="R107" s="30">
+      <c r="S107" s="30">
         <v>3.9363800000000002</v>
       </c>
-      <c r="S107" s="31">
+      <c r="T107" s="31">
         <v>-3.4605869999999997E-2</v>
       </c>
-      <c r="T107" s="31">
+      <c r="U107" s="31">
         <v>-7.8267823599999994E-2</v>
       </c>
-      <c r="U107" s="31">
+      <c r="V107" s="31">
         <v>-1.7227684699999999E-2</v>
       </c>
-      <c r="V107" s="40"/>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W107" s="40"/>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -8836,7 +9160,7 @@
         <v>347</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>123</v>
@@ -8867,29 +9191,32 @@
         <v>148.13290000000001</v>
       </c>
       <c r="O108" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P108" s="8">
         <v>0.123543</v>
       </c>
       <c r="Q108" s="1">
+        <v>0.21015185</v>
+      </c>
+      <c r="R108" s="1">
         <v>0.18210904</v>
       </c>
-      <c r="R108" s="5">
+      <c r="S108" s="5">
         <v>3.9409900000000002</v>
       </c>
-      <c r="S108" s="1">
+      <c r="T108" s="1">
         <v>0.19777397599999999</v>
       </c>
-      <c r="T108" s="1">
+      <c r="U108" s="1">
         <v>2.9765065899999998E-2</v>
       </c>
-      <c r="U108" s="1">
+      <c r="V108" s="1">
         <v>-4.8434107999999997E-3</v>
       </c>
-      <c r="V108" s="29"/>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W108" s="29"/>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -8903,7 +9230,7 @@
         <v>349</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>123</v>
@@ -8934,29 +9261,32 @@
         <v>139.75</v>
       </c>
       <c r="O109" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P109" s="8">
         <v>0.18393399999999999</v>
       </c>
       <c r="Q109" s="1">
+        <v>0.31720668000000002</v>
+      </c>
+      <c r="R109" s="1">
         <v>0.19312871000000001</v>
       </c>
-      <c r="R109" s="5">
+      <c r="S109" s="5">
         <v>1.8935599999999999</v>
       </c>
-      <c r="S109" s="1">
+      <c r="T109" s="1">
         <v>0.119338707</v>
       </c>
-      <c r="T109" s="1">
+      <c r="U109" s="1">
         <v>0.193974603</v>
       </c>
-      <c r="U109" s="1">
+      <c r="V109" s="1">
         <v>-0.28379642770000002</v>
       </c>
-      <c r="V109" s="29"/>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W109" s="29"/>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -8970,7 +9300,7 @@
         <v>351</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>123</v>
@@ -9001,29 +9331,32 @@
         <v>134.18610000000001</v>
       </c>
       <c r="O110" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P110" s="8">
         <v>7.9902899999999999E-2</v>
       </c>
       <c r="Q110" s="1">
+        <v>0.17863554000000001</v>
+      </c>
+      <c r="R110" s="1">
         <v>0.12542631000000001</v>
       </c>
-      <c r="R110" s="5">
+      <c r="S110" s="5">
         <v>3.0274999999999999</v>
       </c>
-      <c r="S110" s="1">
+      <c r="T110" s="1">
         <v>-0.115614786</v>
       </c>
-      <c r="T110" s="1">
+      <c r="U110" s="1">
         <v>-7.7226379100000006E-2</v>
       </c>
-      <c r="U110" s="1">
+      <c r="V110" s="1">
         <v>-2.9826812300000002E-2</v>
       </c>
-      <c r="V110" s="29"/>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W110" s="29"/>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -9037,7 +9370,7 @@
         <v>353</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>123</v>
@@ -9068,29 +9401,32 @@
         <v>134.18610000000001</v>
       </c>
       <c r="O111" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P111" s="8">
         <v>8.1087199999999998E-2</v>
       </c>
       <c r="Q111" s="1">
+        <v>0.18244063999999999</v>
+      </c>
+      <c r="R111" s="1">
         <v>0.12622817</v>
       </c>
-      <c r="R111" s="5">
+      <c r="S111" s="5">
         <v>2.8667899999999999</v>
       </c>
-      <c r="S111" s="1">
+      <c r="T111" s="1">
         <v>-0.12567568700000001</v>
       </c>
-      <c r="T111" s="1">
+      <c r="U111" s="1">
         <v>-5.75969863E-2</v>
       </c>
-      <c r="U111" s="1">
+      <c r="V111" s="1">
         <v>-2.3553982500000001E-2</v>
       </c>
-      <c r="V111" s="29"/>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W111" s="29"/>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -9104,7 +9440,7 @@
         <v>355</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>123</v>
@@ -9135,29 +9471,32 @@
         <v>126.1844</v>
       </c>
       <c r="O112" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P112" s="8">
         <v>3.3465799999999997E-2</v>
       </c>
       <c r="Q112" s="1">
+        <v>0.10366672</v>
+      </c>
+      <c r="R112" s="1">
         <v>8.9988620000000005E-2</v>
       </c>
-      <c r="R112" s="5">
+      <c r="S112" s="5">
         <v>3.80538</v>
       </c>
-      <c r="S112" s="1">
+      <c r="T112" s="1">
         <v>-0.29200515700000002</v>
       </c>
-      <c r="T112" s="1">
+      <c r="U112" s="1">
         <v>-0.15483293079999999</v>
       </c>
-      <c r="U112" s="1">
+      <c r="V112" s="1">
         <v>-5.1195246299999997E-2</v>
       </c>
-      <c r="V112" s="29"/>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W112" s="29"/>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -9171,7 +9510,7 @@
         <v>357</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>123</v>
@@ -9202,29 +9541,32 @@
         <v>139.5917</v>
       </c>
       <c r="O113" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P113" s="8">
         <v>3.6048999999999998E-2</v>
       </c>
       <c r="Q113" s="1">
+        <v>0.21223700000000001</v>
+      </c>
+      <c r="R113" s="1">
         <v>0.18283395</v>
       </c>
-      <c r="R113" s="5">
+      <c r="S113" s="5">
         <v>4.7804399999999996</v>
       </c>
-      <c r="S113" s="1">
+      <c r="T113" s="1">
         <v>0.106327375</v>
       </c>
-      <c r="T113" s="1">
+      <c r="U113" s="1">
         <v>0.49510220989999998</v>
       </c>
-      <c r="U113" s="1">
+      <c r="V113" s="1">
         <v>-0.78915294219999998</v>
       </c>
-      <c r="V113" s="29"/>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W113" s="29"/>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -9238,7 +9580,7 @@
         <v>359</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>123</v>
@@ -9269,29 +9611,32 @@
         <v>113.83280000000001</v>
       </c>
       <c r="O114" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P114" s="8">
         <v>5.0781399999999997E-2</v>
       </c>
       <c r="Q114" s="1">
+        <v>0.30848932000000001</v>
+      </c>
+      <c r="R114" s="1">
         <v>0.25359156999999999</v>
       </c>
-      <c r="R114" s="5">
+      <c r="S114" s="5">
         <v>5.6789899999999998</v>
       </c>
-      <c r="S114" s="1">
+      <c r="T114" s="1">
         <v>-0.41612923800000001</v>
       </c>
-      <c r="T114" s="1">
+      <c r="U114" s="1">
         <v>-0.3141615123</v>
       </c>
-      <c r="U114" s="1">
+      <c r="V114" s="1">
         <v>-0.1005262943</v>
       </c>
-      <c r="V114" s="29"/>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W114" s="29"/>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -9305,7 +9650,7 @@
         <v>361</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>123</v>
@@ -9336,29 +9681,32 @@
         <v>128.75899999999999</v>
       </c>
       <c r="O115" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P115" s="8">
         <v>1.47537E-2</v>
       </c>
       <c r="Q115" s="1">
+        <v>9.469205E-2</v>
+      </c>
+      <c r="R115" s="1">
         <v>8.894502E-2</v>
       </c>
-      <c r="R115" s="5">
+      <c r="S115" s="5">
         <v>5.6907100000000002</v>
       </c>
-      <c r="S115" s="1">
+      <c r="T115" s="1">
         <v>-0.233332815</v>
       </c>
-      <c r="T115" s="1">
+      <c r="U115" s="1">
         <v>0.12603916370000001</v>
       </c>
-      <c r="U115" s="1">
+      <c r="V115" s="1">
         <v>8.0843394900000004E-2</v>
       </c>
-      <c r="V115" s="29"/>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W115" s="29"/>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -9401,29 +9749,32 @@
         <v>125.2</v>
       </c>
       <c r="O116" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P116" s="8">
         <v>0.11070099999999999</v>
       </c>
       <c r="Q116" s="1">
+        <v>0.28493232000000002</v>
+      </c>
+      <c r="R116" s="1">
         <v>0.19041780999999999</v>
       </c>
-      <c r="R116" s="5">
+      <c r="S116" s="5">
         <v>2.4983599999999999</v>
       </c>
-      <c r="S116" s="1">
+      <c r="T116" s="1">
         <v>-0.61585710299999996</v>
       </c>
-      <c r="T116" s="1">
+      <c r="U116" s="1">
         <v>0.27881103029999998</v>
       </c>
-      <c r="U116" s="1">
+      <c r="V116" s="1">
         <v>0.34119801249999998</v>
       </c>
-      <c r="V116" s="29"/>
-    </row>
-    <row r="117" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W116" s="29"/>
+    </row>
+    <row r="117" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="19">
         <v>116</v>
       </c>
@@ -9437,7 +9788,7 @@
         <v>365</v>
       </c>
       <c r="E117" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F117" s="21" t="s">
         <v>123</v>
@@ -9468,30 +9819,33 @@
         <v>119.6961</v>
       </c>
       <c r="O117" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P117" s="28">
         <v>8.3013699999999996E-2</v>
       </c>
       <c r="Q117" s="1">
+        <v>0.38896233000000002</v>
+      </c>
+      <c r="R117" s="1">
         <v>0.36605813999999998</v>
       </c>
-      <c r="R117" s="20">
+      <c r="S117" s="20">
         <v>7.6923500000000002</v>
       </c>
-      <c r="S117" s="19">
+      <c r="T117" s="19">
         <v>0.56250722099999995</v>
       </c>
-      <c r="T117" s="19">
+      <c r="U117" s="19">
         <v>-2.25107667E-2</v>
       </c>
-      <c r="U117" s="19">
+      <c r="V117" s="19">
         <v>5.3643821100000003E-2</v>
       </c>
-      <c r="V117" s="29"/>
-      <c r="W117" s="1"/>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W117" s="29"/>
+      <c r="X117" s="1"/>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -9534,29 +9888,32 @@
         <v>130.19999999999999</v>
       </c>
       <c r="O118" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P118" s="8">
         <v>5.1300199999999997E-2</v>
       </c>
       <c r="Q118" s="1">
+        <v>0.24040729</v>
+      </c>
+      <c r="R118" s="1">
         <v>0.19343558</v>
       </c>
-      <c r="R118" s="5">
+      <c r="S118" s="5">
         <v>5.2651899999999996</v>
       </c>
-      <c r="S118" s="1">
+      <c r="T118" s="1">
         <v>-0.24342347</v>
       </c>
-      <c r="T118" s="1">
+      <c r="U118" s="1">
         <v>-0.15055250149999999</v>
       </c>
-      <c r="U118" s="1">
+      <c r="V118" s="1">
         <v>-4.64908926E-2</v>
       </c>
-      <c r="V118" s="29"/>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W118" s="29"/>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -9570,7 +9927,7 @@
         <v>369</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>123</v>
@@ -9601,29 +9958,32 @@
         <v>133.60900000000001</v>
       </c>
       <c r="O119" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P119" s="8">
         <v>3.40605E-2</v>
       </c>
       <c r="Q119" s="1">
+        <v>0.13710349999999999</v>
+      </c>
+      <c r="R119" s="1">
         <v>0.12026881</v>
       </c>
-      <c r="R119" s="5">
+      <c r="S119" s="5">
         <v>4.22011</v>
       </c>
-      <c r="S119" s="1">
+      <c r="T119" s="1">
         <v>-0.190764709</v>
       </c>
-      <c r="T119" s="1">
+      <c r="U119" s="1">
         <v>0.1133464872</v>
       </c>
-      <c r="U119" s="1">
+      <c r="V119" s="1">
         <v>1.5511224E-3</v>
       </c>
-      <c r="V119" s="29"/>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W119" s="29"/>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -9637,7 +9997,7 @@
         <v>371</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>123</v>
@@ -9668,31 +10028,34 @@
         <v>117.6447</v>
       </c>
       <c r="O120" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P120" s="8">
         <v>7.83412E-2</v>
       </c>
       <c r="Q120" s="1">
+        <v>0.17049175999999999</v>
+      </c>
+      <c r="R120" s="1">
         <v>0.1246814</v>
       </c>
-      <c r="S120" s="1">
+      <c r="T120" s="1">
         <v>-0.18290461350000001</v>
       </c>
-      <c r="T120" s="1">
+      <c r="U120" s="1">
         <v>-5.3981080899999999E-2</v>
       </c>
-      <c r="U120" s="6">
+      <c r="V120" s="6">
         <v>1049661</v>
       </c>
-      <c r="V120" s="29"/>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W120" s="29"/>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B122" s="43"/>
       <c r="C122" s="43"/>
       <c r="E122" s="43"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B123" s="43"/>
       <c r="C123" s="43"/>
       <c r="E123" s="43"/>

--- a/PCA-metadata.xlsx
+++ b/PCA-metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="460" windowWidth="27140" windowHeight="15980" tabRatio="500"/>
+    <workbookView xWindow="660" yWindow="700" windowWidth="27140" windowHeight="15980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PCA" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="402">
   <si>
     <t>WAM63_R1.fastq.gz</t>
   </si>
@@ -1370,7 +1370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1465,6 +1465,9 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1744,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1870,7 +1873,7 @@
         <v>2005</v>
       </c>
       <c r="L2" s="18">
-        <f t="shared" ref="L2:L19" si="0">2019-K2</f>
+        <f t="shared" ref="L2:L20" si="0">2019-K2</f>
         <v>14</v>
       </c>
       <c r="M2" s="3">
@@ -2246,9 +2249,15 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="37"/>
+      <c r="M7" s="29">
+        <v>-26.578333000000001</v>
+      </c>
+      <c r="N7" s="29">
+        <v>136.96111110000001</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>391</v>
+      </c>
       <c r="P7" s="38">
         <v>0.169769</v>
       </c>
@@ -3188,12 +3197,19 @@
       <c r="H20" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="I20" s="40"/>
+      <c r="I20" s="46">
+        <v>38403</v>
+      </c>
       <c r="J20" s="34" t="s">
         <v>385</v>
       </c>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
+      <c r="K20" s="35">
+        <v>2005</v>
+      </c>
+      <c r="L20" s="36">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="M20" s="29">
         <v>-27.4086</v>
       </c>
@@ -3269,8 +3285,12 @@
         <f t="shared" ref="L21:L52" si="1">2019-K21</f>
         <v>22</v>
       </c>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+      <c r="M21" s="29">
+        <v>-32.19</v>
+      </c>
+      <c r="N21" s="29">
+        <v>138.012</v>
+      </c>
       <c r="O21" s="39" t="s">
         <v>391</v>
       </c>
@@ -4852,9 +4872,15 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="37"/>
+      <c r="M42" s="29">
+        <v>-26.577999999999999</v>
+      </c>
+      <c r="N42" s="29">
+        <v>137.09299999999999</v>
+      </c>
+      <c r="O42" s="37" t="s">
+        <v>391</v>
+      </c>
       <c r="P42" s="38">
         <v>0.189141</v>
       </c>
@@ -8086,7 +8112,7 @@
         <v>2009</v>
       </c>
       <c r="L85" s="18">
-        <f t="shared" ref="L85:L116" si="3">2019-K85</f>
+        <f t="shared" ref="L85" si="3">2019-K85</f>
         <v>10</v>
       </c>
       <c r="M85" s="5">
@@ -9744,8 +9770,12 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="M107" s="29"/>
-      <c r="N107" s="29"/>
+      <c r="M107" s="29">
+        <v>-32.521999999999998</v>
+      </c>
+      <c r="N107" s="29">
+        <v>135.322</v>
+      </c>
       <c r="O107" s="39" t="s">
         <v>391</v>
       </c>
